--- a/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.60982512400784</v>
+        <v>20.48493553167826</v>
       </c>
       <c r="C2">
-        <v>23.82907347508402</v>
+        <v>9.885081169417029</v>
       </c>
       <c r="D2">
-        <v>2.793245887061005</v>
+        <v>5.816377197701959</v>
       </c>
       <c r="E2">
-        <v>16.92271940706453</v>
+        <v>5.490934552465226</v>
       </c>
       <c r="F2">
-        <v>40.92264401813075</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>67.51802032240658</v>
       </c>
       <c r="I2">
-        <v>23.35252309938575</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.71547014333722</v>
+        <v>7.041928839319551</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.15279458429656</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.11143340147805</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.7682533534023</v>
+        <v>19.44636960457105</v>
       </c>
       <c r="C3">
-        <v>22.07485302152512</v>
+        <v>9.138236388482136</v>
       </c>
       <c r="D3">
-        <v>2.869518846846764</v>
+        <v>5.519776902641965</v>
       </c>
       <c r="E3">
-        <v>15.65545448401975</v>
+        <v>5.535064184770186</v>
       </c>
       <c r="F3">
-        <v>38.49901509689157</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>64.53782182398746</v>
       </c>
       <c r="I3">
-        <v>22.40161281500466</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.76234342944203</v>
+        <v>7.004334740506255</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.34706980763322</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.106849806659145</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.5832610457843</v>
+        <v>18.80797939529074</v>
       </c>
       <c r="C4">
-        <v>20.94947088770035</v>
+        <v>8.659923644998862</v>
       </c>
       <c r="D4">
-        <v>2.916006630797995</v>
+        <v>5.333187161230886</v>
       </c>
       <c r="E4">
-        <v>14.84488510997448</v>
+        <v>5.563344366369387</v>
       </c>
       <c r="F4">
-        <v>37.00026173782415</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>62.68616811178529</v>
       </c>
       <c r="I4">
-        <v>21.8361651522451</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11.1537460239666</v>
+        <v>6.982766494685362</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.85349224830043</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.109660245970353</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08637769997385</v>
+        <v>18.54791245469953</v>
       </c>
       <c r="C5">
-        <v>20.4783519641278</v>
+        <v>8.459885453369273</v>
       </c>
       <c r="D5">
-        <v>2.934902224867135</v>
+        <v>5.256028748254135</v>
       </c>
       <c r="E5">
-        <v>14.5060936805631</v>
+        <v>5.575172128160548</v>
       </c>
       <c r="F5">
-        <v>36.38701717784991</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>61.92647006785609</v>
       </c>
       <c r="I5">
-        <v>21.61028517433077</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.89961021900547</v>
+        <v>6.97433593178912</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.65284175036656</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.112162374330959</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.00301615301275</v>
+        <v>18.50474246176493</v>
       </c>
       <c r="C6">
-        <v>20.39935677915236</v>
+        <v>8.426355612800215</v>
       </c>
       <c r="D6">
-        <v>2.938037924205682</v>
+        <v>5.243149288898134</v>
       </c>
       <c r="E6">
-        <v>14.44931697540082</v>
+        <v>5.577154597531199</v>
       </c>
       <c r="F6">
-        <v>36.28504703615973</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>61.80002557070605</v>
       </c>
       <c r="I6">
-        <v>21.57305060012709</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.85703425248664</v>
+        <v>6.972957089617244</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.61956012273682</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.112658171532272</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.57661698045991</v>
+        <v>18.80447131339461</v>
       </c>
       <c r="C7">
-        <v>20.94316836197844</v>
+        <v>8.657246794783047</v>
       </c>
       <c r="D7">
-        <v>2.91626161276584</v>
+        <v>5.332151102052666</v>
       </c>
       <c r="E7">
-        <v>14.84035077003315</v>
+        <v>5.563502644295376</v>
       </c>
       <c r="F7">
-        <v>36.99200100788888</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>62.67594278397846</v>
       </c>
       <c r="I7">
-        <v>21.8331005429094</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.1503437814548</v>
+        <v>6.982651372997966</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.85078393342632</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.109688570701291</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98589474515417</v>
+        <v>20.12711784376116</v>
       </c>
       <c r="C8">
-        <v>23.23400138321488</v>
+        <v>9.631568825718301</v>
       </c>
       <c r="D8">
-        <v>2.819640448549726</v>
+        <v>5.715036422618755</v>
       </c>
       <c r="E8">
-        <v>16.49230440202658</v>
+        <v>5.505908046481651</v>
       </c>
       <c r="F8">
-        <v>40.08923299788112</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>66.49513532739354</v>
       </c>
       <c r="I8">
-        <v>23.0207621524083</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.39152436834443</v>
+        <v>7.028638073618135</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.87484626771954</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.108650005360376</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.29745717140507</v>
+        <v>22.70787162913653</v>
       </c>
       <c r="C9">
-        <v>27.36245148889959</v>
+        <v>11.39343772012927</v>
       </c>
       <c r="D9">
-        <v>2.625465680270634</v>
+        <v>6.430966770676201</v>
       </c>
       <c r="E9">
-        <v>19.49038407341417</v>
+        <v>5.4020971300367</v>
       </c>
       <c r="F9">
-        <v>46.08156473165728</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>73.80462273263497</v>
       </c>
       <c r="I9">
-        <v>25.50266796123922</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>14.65289876295137</v>
+        <v>7.131947641212107</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.8864647943569</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.154001159743797</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.24149144140826</v>
+        <v>24.59267115570314</v>
       </c>
       <c r="C10">
-        <v>30.20506473661408</v>
+        <v>12.60977460871106</v>
       </c>
       <c r="D10">
-        <v>2.47670857412287</v>
+        <v>6.937725436926065</v>
       </c>
       <c r="E10">
-        <v>21.57236092417349</v>
+        <v>5.330997083502472</v>
       </c>
       <c r="F10">
-        <v>50.60197386204506</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>79.06932108370441</v>
       </c>
       <c r="I10">
-        <v>27.43502478120325</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>16.23021039801888</v>
+        <v>7.21760682877256</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.73696317932097</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.220350007679317</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.5398750683648</v>
+        <v>25.50017022278325</v>
       </c>
       <c r="C11">
-        <v>31.46546372788428</v>
+        <v>13.1495044917933</v>
       </c>
       <c r="D11">
-        <v>2.40681774757507</v>
+        <v>7.164896212077878</v>
       </c>
       <c r="E11">
-        <v>22.50063414625108</v>
+        <v>5.299678331963316</v>
       </c>
       <c r="F11">
-        <v>52.7202708931509</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>81.44650433265979</v>
       </c>
       <c r="I11">
-        <v>28.34357110454034</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>16.93536716334208</v>
+        <v>7.259155912606449</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.56424535449221</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.258733193753521</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.02644069156058</v>
+        <v>25.86773217954356</v>
       </c>
       <c r="C12">
-        <v>31.93892487640809</v>
+        <v>13.35226531472478</v>
       </c>
       <c r="D12">
-        <v>2.379940726508731</v>
+        <v>7.250531797441612</v>
       </c>
       <c r="E12">
-        <v>22.85020216344468</v>
+        <v>5.287957421932163</v>
       </c>
       <c r="F12">
-        <v>53.52232363538237</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>82.34485487558841</v>
       </c>
       <c r="I12">
-        <v>28.69256279866558</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>17.20122281933414</v>
+        <v>7.275306453240329</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.87499557153127</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.274544645366889</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.92186314908445</v>
+        <v>25.7886577491963</v>
       </c>
       <c r="C13">
-        <v>31.8371107135982</v>
+        <v>13.30866347154103</v>
       </c>
       <c r="D13">
-        <v>2.385749096449591</v>
+        <v>7.232104189033936</v>
       </c>
       <c r="E13">
-        <v>22.77498933062812</v>
+        <v>5.29047570031741</v>
       </c>
       <c r="F13">
-        <v>53.34956392577944</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>82.15144639527664</v>
       </c>
       <c r="I13">
-        <v>28.61716770095943</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>17.14400713562784</v>
+        <v>7.271808804206617</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.80817492274363</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.271080904361434</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.58000244431821</v>
+        <v>25.53044948821036</v>
       </c>
       <c r="C14">
-        <v>31.50448663810013</v>
+        <v>13.16621618593971</v>
       </c>
       <c r="D14">
-        <v>2.404615380938775</v>
+        <v>7.171948676288904</v>
       </c>
       <c r="E14">
-        <v>22.52942746937113</v>
+        <v>5.298711315313544</v>
       </c>
       <c r="F14">
-        <v>52.78624840904206</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>81.52044392095593</v>
       </c>
       <c r="I14">
-        <v>28.37217894866558</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>16.95725882756685</v>
+        <v>7.260475987165929</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.5898589502661</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.260007824497864</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.36996367363169</v>
+        <v>25.37202780927642</v>
       </c>
       <c r="C15">
-        <v>31.30027583188206</v>
+        <v>13.07876247737669</v>
       </c>
       <c r="D15">
-        <v>2.416114999978259</v>
+        <v>7.135054218401539</v>
       </c>
       <c r="E15">
-        <v>22.3787851091503</v>
+        <v>5.303773678366126</v>
       </c>
       <c r="F15">
-        <v>52.44123875758893</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>81.13372330435126</v>
       </c>
       <c r="I15">
-        <v>28.22278480996119</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>16.84273762838368</v>
+        <v>7.253590064132043</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.45581875068169</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.25339459266841</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.15587941048086</v>
+        <v>24.53670762879694</v>
       </c>
       <c r="C16">
-        <v>30.12210771511007</v>
+        <v>12.57425563232077</v>
       </c>
       <c r="D16">
-        <v>2.481223978613136</v>
+        <v>6.922819205632745</v>
       </c>
       <c r="E16">
-        <v>21.51137863808392</v>
+        <v>5.333063747704499</v>
       </c>
       <c r="F16">
-        <v>50.4634353590817</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>78.91366444987339</v>
       </c>
       <c r="I16">
-        <v>27.37629807025646</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>16.18392696078898</v>
+        <v>7.214947186584745</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.68252159316697</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.218014639397476</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.4011160771783</v>
+        <v>24.0461474646631</v>
       </c>
       <c r="C17">
-        <v>29.39153418994699</v>
+        <v>12.26149582667157</v>
       </c>
       <c r="D17">
-        <v>2.520537543922129</v>
+        <v>6.791819375197007</v>
       </c>
       <c r="E17">
-        <v>20.97492424138391</v>
+        <v>5.351288921196063</v>
       </c>
       <c r="F17">
-        <v>49.2482501359646</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>77.54760969856603</v>
       </c>
       <c r="I17">
-        <v>26.86499768188199</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>15.77699457734558</v>
+        <v>7.191932594140796</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.20318147290747</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.19847612072652</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.96309531268828</v>
+        <v>23.76386087676106</v>
       </c>
       <c r="C18">
-        <v>28.96818634210305</v>
+        <v>12.08030305480342</v>
       </c>
       <c r="D18">
-        <v>2.542947047411455</v>
+        <v>6.716148863595162</v>
       </c>
       <c r="E18">
-        <v>20.66454440770736</v>
+        <v>5.36186859427457</v>
       </c>
       <c r="F18">
-        <v>48.54817500378628</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>76.76016195484753</v>
       </c>
       <c r="I18">
-        <v>26.57363533604429</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>15.54173088313304</v>
+        <v>7.178935164922047</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.92553598772816</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.188003514319624</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.81409775172422</v>
+        <v>23.66825579654208</v>
       </c>
       <c r="C19">
-        <v>28.82428437987928</v>
+        <v>12.01872151693656</v>
       </c>
       <c r="D19">
-        <v>2.550502240186052</v>
+        <v>6.690470211425572</v>
       </c>
       <c r="E19">
-        <v>20.55912088581637</v>
+        <v>5.365467604791834</v>
       </c>
       <c r="F19">
-        <v>48.31090888342911</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>76.49323116107423</v>
       </c>
       <c r="I19">
-        <v>26.47543492860011</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>15.46185077403016</v>
+        <v>7.174574399218581</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.83118565394039</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.184586361931613</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.48186050069219</v>
+        <v>24.09838043898109</v>
       </c>
       <c r="C20">
-        <v>29.46962425888537</v>
+        <v>12.29492212646029</v>
       </c>
       <c r="D20">
-        <v>2.516374127624952</v>
+        <v>6.805797345823918</v>
       </c>
       <c r="E20">
-        <v>21.03221463871252</v>
+        <v>5.349338837291204</v>
       </c>
       <c r="F20">
-        <v>49.37771658655669</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>77.69320318164019</v>
       </c>
       <c r="I20">
-        <v>26.91914013821746</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15.82043412701192</v>
+        <v>7.194357395498352</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.25440637615011</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.200476143727399</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.68054683489588</v>
+        <v>25.60634520739316</v>
       </c>
       <c r="C21">
-        <v>31.60228229385016</v>
+        <v>13.2080975483677</v>
       </c>
       <c r="D21">
-        <v>2.399085864521683</v>
+        <v>7.1896274986818</v>
       </c>
       <c r="E21">
-        <v>22.60160100409513</v>
+        <v>5.296288620147939</v>
       </c>
       <c r="F21">
-        <v>52.95169683535558</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>81.70582744476526</v>
       </c>
       <c r="I21">
-        <v>28.44399718659654</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>17.01213767193368</v>
+        <v>7.263792999229696</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.65404853100115</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.26322477225653</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.08824037425135</v>
+        <v>26.67275365918105</v>
       </c>
       <c r="C22">
-        <v>32.97435104211118</v>
+        <v>13.79564523465</v>
       </c>
       <c r="D22">
-        <v>2.319980218432162</v>
+        <v>7.43827697274531</v>
       </c>
       <c r="E22">
-        <v>23.61640072780274</v>
+        <v>5.262421842798331</v>
       </c>
       <c r="F22">
-        <v>55.28790990763823</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>84.31813654398658</v>
       </c>
       <c r="I22">
-        <v>29.54834297965963</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>17.78453418504924</v>
+        <v>7.311629387693225</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.55433507187697</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.31173039012137</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.33930974414444</v>
+        <v>26.10453769392156</v>
       </c>
       <c r="C23">
-        <v>32.24370233518652</v>
+        <v>13.48278340203516</v>
       </c>
       <c r="D23">
-        <v>2.362459729050214</v>
+        <v>7.305732316749364</v>
       </c>
       <c r="E23">
-        <v>23.07548492982797</v>
+        <v>5.280426596546511</v>
       </c>
       <c r="F23">
-        <v>54.04039531549425</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>82.92451929084477</v>
       </c>
       <c r="I23">
-        <v>28.9193805385832</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>17.37264648340302</v>
+        <v>7.285856429178201</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.07500364416651</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.285120549400794</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.44536876528922</v>
+        <v>24.07476672855279</v>
       </c>
       <c r="C24">
-        <v>29.43433017938653</v>
+        <v>12.27981442819053</v>
       </c>
       <c r="D24">
-        <v>2.518257000698575</v>
+        <v>6.799479023860881</v>
       </c>
       <c r="E24">
-        <v>21.00631982594392</v>
+        <v>5.350220152562211</v>
       </c>
       <c r="F24">
-        <v>49.31918942239762</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>77.62738691164053</v>
       </c>
       <c r="I24">
-        <v>26.89465431309451</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>15.80079923995168</v>
+        <v>7.193260417378483</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.23125406295029</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.199569572212938</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.17261918256511</v>
+        <v>22.01178241598559</v>
       </c>
       <c r="C25">
-        <v>26.28160685516164</v>
+        <v>10.93153272478922</v>
       </c>
       <c r="D25">
-        <v>2.678801450851844</v>
+        <v>6.240876606322543</v>
       </c>
       <c r="E25">
-        <v>18.70268528619702</v>
+        <v>5.429242362089231</v>
       </c>
       <c r="F25">
-        <v>44.46783569047776</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>71.84674768226705</v>
       </c>
       <c r="I25">
-        <v>24.8136217790738</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>14.05763560196719</v>
+        <v>7.102426046660539</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.3424186013711</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.136252811501947</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.48493553167826</v>
+        <v>26.84190381231972</v>
       </c>
       <c r="C2">
-        <v>9.885081169417029</v>
+        <v>15.27742454473771</v>
       </c>
       <c r="D2">
-        <v>5.816377197701959</v>
+        <v>2.96437393891479</v>
       </c>
       <c r="E2">
-        <v>5.490934552465226</v>
+        <v>5.975648813916919</v>
       </c>
       <c r="F2">
-        <v>67.51802032240658</v>
+        <v>44.7449187259458</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.041928839319551</v>
+        <v>5.869012835635781</v>
       </c>
       <c r="K2">
-        <v>16.15279458429656</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.11143340147805</v>
+        <v>6.741911288698275</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.74635549867219</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>16.06522374863923</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.44636960457105</v>
+        <v>25.37036150799275</v>
       </c>
       <c r="C3">
-        <v>9.138236388482136</v>
+        <v>14.16769389925902</v>
       </c>
       <c r="D3">
-        <v>5.519776902641965</v>
+        <v>2.761655609917051</v>
       </c>
       <c r="E3">
-        <v>5.535064184770186</v>
+        <v>5.906771070416012</v>
       </c>
       <c r="F3">
-        <v>64.53782182398746</v>
+        <v>43.53204268456084</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.004334740506255</v>
+        <v>5.901529490151315</v>
       </c>
       <c r="K3">
-        <v>15.34706980763322</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.106849806659145</v>
+        <v>6.685167623369348</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.20711870699529</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>16.26540190763115</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.80797939529074</v>
+        <v>24.44768739852612</v>
       </c>
       <c r="C4">
-        <v>8.659923644998862</v>
+        <v>13.45395504266336</v>
       </c>
       <c r="D4">
-        <v>5.333187161230886</v>
+        <v>2.710334400170315</v>
       </c>
       <c r="E4">
-        <v>5.563344366369387</v>
+        <v>5.864683464613039</v>
       </c>
       <c r="F4">
-        <v>62.68616811178529</v>
+        <v>42.81374710640519</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.982766494685362</v>
+        <v>5.921943008893444</v>
       </c>
       <c r="K4">
-        <v>14.85349224830043</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.109660245970353</v>
+        <v>6.6536406485523</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.87912322921879</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>16.39287253228636</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54791245469953</v>
+        <v>24.06721075365</v>
       </c>
       <c r="C5">
-        <v>8.459885453369273</v>
+        <v>13.15482820446923</v>
       </c>
       <c r="D5">
-        <v>5.256028748254135</v>
+        <v>2.69191900427514</v>
       </c>
       <c r="E5">
-        <v>5.575172128160548</v>
+        <v>5.847561052928476</v>
       </c>
       <c r="F5">
-        <v>61.92647006785609</v>
+        <v>42.52766332680365</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.97433593178912</v>
+        <v>5.930380489906538</v>
       </c>
       <c r="K5">
-        <v>14.65284175036656</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.112162374330959</v>
+        <v>6.641608672083304</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.74635974159048</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>16.44594502111195</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.50474246176493</v>
+        <v>24.00377396951825</v>
       </c>
       <c r="C6">
-        <v>8.426355612800215</v>
+        <v>13.10465517944772</v>
       </c>
       <c r="D6">
-        <v>5.243149288898134</v>
+        <v>2.68890840866537</v>
       </c>
       <c r="E6">
-        <v>5.577154597531199</v>
+        <v>5.844719001473945</v>
       </c>
       <c r="F6">
-        <v>61.80002557070605</v>
+        <v>42.48055934690588</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.972957089617244</v>
+        <v>5.9317888733163</v>
       </c>
       <c r="K6">
-        <v>14.61956012273682</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.112658171532272</v>
+        <v>6.639659512270205</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.72437241063808</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>16.45482525126868</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.80447131339461</v>
+        <v>24.44257378347361</v>
       </c>
       <c r="C7">
-        <v>8.657246794783047</v>
+        <v>13.44995457427242</v>
       </c>
       <c r="D7">
-        <v>5.332151102052666</v>
+        <v>2.710082850033525</v>
       </c>
       <c r="E7">
-        <v>5.563502644295376</v>
+        <v>5.864452458054649</v>
       </c>
       <c r="F7">
-        <v>62.67594278397846</v>
+        <v>42.80986205866584</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.982651372997966</v>
+        <v>5.92205631090087</v>
       </c>
       <c r="K7">
-        <v>14.85078393342632</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.109688570701291</v>
+        <v>6.65347510236109</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.87732893358866</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>16.39358374538594</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.12711784376116</v>
+        <v>26.33865937917929</v>
       </c>
       <c r="C8">
-        <v>9.631568825718301</v>
+        <v>14.90141841101024</v>
       </c>
       <c r="D8">
-        <v>5.715036422618755</v>
+        <v>2.895314866897737</v>
       </c>
       <c r="E8">
-        <v>5.505908046481651</v>
+        <v>5.95184316928418</v>
       </c>
       <c r="F8">
-        <v>66.49513532739354</v>
+        <v>44.32122307781675</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.028638073618135</v>
+        <v>5.880135386528281</v>
       </c>
       <c r="K8">
-        <v>15.87484626771954</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.108650005360376</v>
+        <v>6.721647437531904</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.55984935929441</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>16.13328554328531</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.70787162913653</v>
+        <v>29.89531747368753</v>
       </c>
       <c r="C9">
-        <v>11.39343772012927</v>
+        <v>17.49808904765621</v>
       </c>
       <c r="D9">
-        <v>6.430966770676201</v>
+        <v>3.380117617413898</v>
       </c>
       <c r="E9">
-        <v>5.4020971300367</v>
+        <v>6.125992059614605</v>
       </c>
       <c r="F9">
-        <v>73.80462273263497</v>
+        <v>47.49655912726777</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.131947641212107</v>
+        <v>5.801182263954767</v>
       </c>
       <c r="K9">
-        <v>17.8864647943569</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.154001159743797</v>
+        <v>6.882467881527966</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.91868408436929</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15.66015749700009</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.59267115570314</v>
+        <v>32.40385592362914</v>
       </c>
       <c r="C10">
-        <v>12.60977460871106</v>
+        <v>19.26515317706988</v>
       </c>
       <c r="D10">
-        <v>6.937725436926065</v>
+        <v>3.720831729771924</v>
       </c>
       <c r="E10">
-        <v>5.330997083502472</v>
+        <v>6.257508172945172</v>
       </c>
       <c r="F10">
-        <v>79.06932108370441</v>
+        <v>49.96443870535354</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.21760682877256</v>
+        <v>5.74469252968191</v>
       </c>
       <c r="K10">
-        <v>19.73696317932097</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.220350007679317</v>
+        <v>7.018437059417653</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.92575966605864</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.33735415727529</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.50017022278325</v>
+        <v>33.52298737646966</v>
       </c>
       <c r="C11">
-        <v>13.1495044917933</v>
+        <v>20.04151553668467</v>
       </c>
       <c r="D11">
-        <v>7.164896212077878</v>
+        <v>3.873401340950373</v>
       </c>
       <c r="E11">
-        <v>5.299678331963316</v>
+        <v>6.318619543272713</v>
       </c>
       <c r="F11">
-        <v>81.44650433265979</v>
+        <v>51.11900319566526</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.259155912606449</v>
+        <v>5.719205428480334</v>
       </c>
       <c r="K11">
-        <v>20.56424535449221</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.258733193753521</v>
+        <v>7.084483499417296</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.38564014377493</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>15.19652625125516</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.86773217954356</v>
+        <v>33.94378070985928</v>
       </c>
       <c r="C12">
-        <v>13.35226531472478</v>
+        <v>20.33184655471065</v>
       </c>
       <c r="D12">
-        <v>7.250531797441612</v>
+        <v>3.930919768972632</v>
       </c>
       <c r="E12">
-        <v>5.287957421932163</v>
+        <v>6.341996153411054</v>
       </c>
       <c r="F12">
-        <v>82.34485487558841</v>
+        <v>51.56111898395087</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.275306453240329</v>
+        <v>5.709573245971781</v>
       </c>
       <c r="K12">
-        <v>20.87499557153127</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.274544645366889</v>
+        <v>7.110127750314913</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.56007089161362</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>15.14413466322684</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.7886577491963</v>
+        <v>33.85328493602577</v>
       </c>
       <c r="C13">
-        <v>13.30866347154103</v>
+        <v>20.26947628144517</v>
       </c>
       <c r="D13">
-        <v>7.232104189033936</v>
+        <v>3.918541923435504</v>
       </c>
       <c r="E13">
-        <v>5.29047570031741</v>
+        <v>6.336950233316001</v>
       </c>
       <c r="F13">
-        <v>82.15144639527664</v>
+        <v>51.46567692497803</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.271808804206617</v>
+        <v>5.711647043606546</v>
       </c>
       <c r="K13">
-        <v>20.80817492274363</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.271080904361434</v>
+        <v>7.104576063133</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.52249053431687</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>15.15537514135537</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.53044948821036</v>
+        <v>33.55766506274776</v>
       </c>
       <c r="C14">
-        <v>13.16621618593971</v>
+        <v>20.06547278648366</v>
       </c>
       <c r="D14">
-        <v>7.171948676288904</v>
+        <v>3.878137974698421</v>
       </c>
       <c r="E14">
-        <v>5.298711315313544</v>
+        <v>6.320537720997025</v>
       </c>
       <c r="F14">
-        <v>81.52044392095593</v>
+        <v>51.15527576073971</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.260475987165929</v>
+        <v>5.718412665581074</v>
       </c>
       <c r="K14">
-        <v>20.5898589502661</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.260007824497864</v>
+        <v>7.086580368266966</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.39998464741929</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>15.19219671769753</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.37202780927642</v>
+        <v>33.37620563806609</v>
       </c>
       <c r="C15">
-        <v>13.07876247737669</v>
+        <v>19.94004741327851</v>
       </c>
       <c r="D15">
-        <v>7.135054218401539</v>
+        <v>3.853358985190484</v>
       </c>
       <c r="E15">
-        <v>5.303773678366126</v>
+        <v>6.310516835491072</v>
       </c>
       <c r="F15">
-        <v>81.13372330435126</v>
+        <v>50.96579647935043</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.253590064132043</v>
+        <v>5.722558958649556</v>
       </c>
       <c r="K15">
-        <v>20.45581875068169</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.25339459266841</v>
+        <v>7.075641039455466</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.32498487411442</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>15.21487541380043</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.53670762879694</v>
+        <v>32.33028725449973</v>
       </c>
       <c r="C16">
-        <v>12.57425563232077</v>
+        <v>19.21388701786647</v>
       </c>
       <c r="D16">
-        <v>6.922819205632745</v>
+        <v>3.710819732074084</v>
       </c>
       <c r="E16">
-        <v>5.333063747704499</v>
+        <v>6.253544362239971</v>
       </c>
       <c r="F16">
-        <v>78.91366444987339</v>
+        <v>49.88965213840113</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.214947186584745</v>
+        <v>5.74636149255484</v>
       </c>
       <c r="K16">
-        <v>19.68252159316697</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.218014639397476</v>
+        <v>7.01420768251236</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.89574250257846</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>15.34668442954615</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.0461474646631</v>
+        <v>31.68310123262314</v>
       </c>
       <c r="C17">
-        <v>12.26149582667157</v>
+        <v>18.76156664108894</v>
       </c>
       <c r="D17">
-        <v>6.791819375197007</v>
+        <v>3.622816987640614</v>
       </c>
       <c r="E17">
-        <v>5.351288921196063</v>
+        <v>6.218955808906498</v>
       </c>
       <c r="F17">
-        <v>77.54760969856603</v>
+        <v>49.23783957946512</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.191932594140796</v>
+        <v>5.761010020223396</v>
       </c>
       <c r="K17">
-        <v>19.20318147290747</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.19847612072652</v>
+        <v>6.977614845838962</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.63287582331237</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>15.42913212971462</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.76386087676106</v>
+        <v>31.30876886712139</v>
       </c>
       <c r="C18">
-        <v>12.08030305480342</v>
+        <v>18.49879727980652</v>
       </c>
       <c r="D18">
-        <v>6.716148863595162</v>
+        <v>3.571965771086179</v>
       </c>
       <c r="E18">
-        <v>5.36186859427457</v>
+        <v>6.199178782667101</v>
       </c>
       <c r="F18">
-        <v>76.76016195484753</v>
+        <v>48.86591321069168</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.178935164922047</v>
+        <v>5.769455998596851</v>
       </c>
       <c r="K18">
-        <v>18.92553598772816</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.188003514319624</v>
+        <v>6.956960215697324</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.48184297938273</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>15.47711505275451</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.66825579654208</v>
+        <v>31.18166415568876</v>
       </c>
       <c r="C19">
-        <v>12.01872151693656</v>
+        <v>18.40937216867115</v>
       </c>
       <c r="D19">
-        <v>6.690470211425572</v>
+        <v>3.554705596751387</v>
       </c>
       <c r="E19">
-        <v>5.365467604791834</v>
+        <v>6.192501379458093</v>
       </c>
       <c r="F19">
-        <v>76.49323116107423</v>
+        <v>48.74048900394317</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.174574399218581</v>
+        <v>5.772319502931315</v>
       </c>
       <c r="K19">
-        <v>18.83118565394039</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.184586361931613</v>
+        <v>6.950033477807787</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.43073322616993</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15.49345570382845</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.09838043898109</v>
+        <v>31.75221048241831</v>
       </c>
       <c r="C20">
-        <v>12.29492212646029</v>
+        <v>18.80998471316168</v>
       </c>
       <c r="D20">
-        <v>6.805797345823918</v>
+        <v>3.632208664957207</v>
       </c>
       <c r="E20">
-        <v>5.349338837291204</v>
+        <v>6.222625330480554</v>
       </c>
       <c r="F20">
-        <v>77.69320318164019</v>
+        <v>49.30691586428326</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.194357395498352</v>
+        <v>5.75944861003628</v>
       </c>
       <c r="K20">
-        <v>19.25440637615011</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.200476143727399</v>
+        <v>6.981469374525482</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.66084165698702</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.42029688257546</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.60634520739316</v>
+        <v>33.64457531453893</v>
       </c>
       <c r="C21">
-        <v>13.2080975483677</v>
+        <v>20.12549037065041</v>
       </c>
       <c r="D21">
-        <v>7.1896274986818</v>
+        <v>3.890011744530636</v>
       </c>
       <c r="E21">
-        <v>5.296288620147939</v>
+        <v>6.325351650163627</v>
       </c>
       <c r="F21">
-        <v>81.70582744476526</v>
+        <v>51.24631183786881</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.263792999229696</v>
+        <v>5.716425011067808</v>
       </c>
       <c r="K21">
-        <v>20.65404853100115</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.26322477225653</v>
+        <v>7.091848665109462</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.43595943260921</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>15.18135524792242</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.67275365918105</v>
+        <v>34.8640218266228</v>
       </c>
       <c r="C22">
-        <v>13.79564523465</v>
+        <v>20.96408003950433</v>
       </c>
       <c r="D22">
-        <v>7.43827697274531</v>
+        <v>4.057060521278501</v>
       </c>
       <c r="E22">
-        <v>5.262421842798331</v>
+        <v>6.393889215206134</v>
       </c>
       <c r="F22">
-        <v>84.31813654398658</v>
+        <v>52.54265442842541</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.311629387693225</v>
+        <v>5.688412555020099</v>
       </c>
       <c r="K22">
-        <v>21.55433507187697</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.31173039012137</v>
+        <v>7.167700968716718</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.94424424878239</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>15.03069983114798</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.10453769392156</v>
+        <v>34.21468431939886</v>
       </c>
       <c r="C23">
-        <v>13.48278340203516</v>
+        <v>20.51833819750418</v>
       </c>
       <c r="D23">
-        <v>7.305732316749364</v>
+        <v>3.968000835172764</v>
       </c>
       <c r="E23">
-        <v>5.280426596546511</v>
+        <v>6.357162364621567</v>
       </c>
       <c r="F23">
-        <v>82.92451929084477</v>
+        <v>51.84799841199571</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.285856429178201</v>
+        <v>5.703357640588295</v>
       </c>
       <c r="K23">
-        <v>21.07500364416651</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.285120549400794</v>
+        <v>7.126865838930581</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.67278607260842</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>15.11057541921197</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.07476672855279</v>
+        <v>31.72097323056719</v>
       </c>
       <c r="C24">
-        <v>12.27981442819053</v>
+        <v>18.78810340996422</v>
       </c>
       <c r="D24">
-        <v>6.799479023860881</v>
+        <v>3.627963495711632</v>
       </c>
       <c r="E24">
-        <v>5.350220152562211</v>
+        <v>6.220966005835907</v>
       </c>
       <c r="F24">
-        <v>77.62738691164053</v>
+        <v>49.27567774794298</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.193260417378483</v>
+        <v>5.760154446938363</v>
       </c>
       <c r="K24">
-        <v>19.23125406295029</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.199569572212938</v>
+        <v>6.979725551166825</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.64819801662215</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.42428948823347</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.01178241598559</v>
+        <v>28.95141361144226</v>
       </c>
       <c r="C25">
-        <v>10.93153272478922</v>
+        <v>16.82125431785594</v>
       </c>
       <c r="D25">
-        <v>6.240876606322543</v>
+        <v>3.251960691994611</v>
       </c>
       <c r="E25">
-        <v>5.429242362089231</v>
+        <v>6.078405291367964</v>
       </c>
       <c r="F25">
-        <v>71.84674768226705</v>
+        <v>46.614461943681</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.102426046660539</v>
+        <v>5.822238179494788</v>
       </c>
       <c r="K25">
-        <v>17.3424186013711</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.136252811501947</v>
+        <v>6.835932045192855</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.54938236774263</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.78397458661621</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.84190381231972</v>
+        <v>29.2202491786634</v>
       </c>
       <c r="C2">
-        <v>15.27742454473771</v>
+        <v>11.00672983195742</v>
       </c>
       <c r="D2">
-        <v>2.96437393891479</v>
+        <v>3.364191789476482</v>
       </c>
       <c r="E2">
-        <v>5.975648813916919</v>
+        <v>9.278120118369966</v>
       </c>
       <c r="F2">
-        <v>44.7449187259458</v>
+        <v>57.50620784017602</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.869012835635781</v>
+        <v>9.681245611534155</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.741911288698275</v>
+        <v>11.66435812606972</v>
       </c>
       <c r="M2">
-        <v>15.74635549867219</v>
+        <v>22.33059044669317</v>
       </c>
       <c r="N2">
-        <v>16.06522374863923</v>
+        <v>23.80895137667833</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.37036150799275</v>
+        <v>28.98779264211935</v>
       </c>
       <c r="C3">
-        <v>14.16769389925902</v>
+        <v>10.67435376955665</v>
       </c>
       <c r="D3">
-        <v>2.761655609917051</v>
+        <v>3.304570384338744</v>
       </c>
       <c r="E3">
-        <v>5.906771070416012</v>
+        <v>9.263235039810452</v>
       </c>
       <c r="F3">
-        <v>43.53204268456084</v>
+        <v>57.42628700465458</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.901529490151315</v>
+        <v>9.690777016730125</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.685167623369348</v>
+        <v>11.68308512607782</v>
       </c>
       <c r="M3">
-        <v>15.20711870699529</v>
+        <v>22.30601294436343</v>
       </c>
       <c r="N3">
-        <v>16.26540190763115</v>
+        <v>23.86462593616423</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.44768739852612</v>
+        <v>28.85223907291067</v>
       </c>
       <c r="C4">
-        <v>13.45395504266336</v>
+        <v>10.46883087925419</v>
       </c>
       <c r="D4">
-        <v>2.710334400170315</v>
+        <v>3.266873852802869</v>
       </c>
       <c r="E4">
-        <v>5.864683464613039</v>
+        <v>9.253889449250595</v>
       </c>
       <c r="F4">
-        <v>42.81374710640519</v>
+        <v>57.38978736585813</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.921943008893444</v>
+        <v>9.696921398371323</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.6536406485523</v>
+        <v>11.69613837047828</v>
       </c>
       <c r="M4">
-        <v>14.87912322921879</v>
+        <v>22.29553293496956</v>
       </c>
       <c r="N4">
-        <v>16.39287253228636</v>
+        <v>23.90079462990975</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.06721075365</v>
+        <v>28.79885519298272</v>
       </c>
       <c r="C5">
-        <v>13.15482820446923</v>
+        <v>10.38486423289609</v>
       </c>
       <c r="D5">
-        <v>2.69191900427514</v>
+        <v>3.251244784431305</v>
       </c>
       <c r="E5">
-        <v>5.847561052928476</v>
+        <v>9.250028918752069</v>
       </c>
       <c r="F5">
-        <v>42.52766332680365</v>
+        <v>57.37807621702649</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.930380489906538</v>
+        <v>9.699498972867117</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.641608672083304</v>
+        <v>11.70184883001646</v>
       </c>
       <c r="M5">
-        <v>14.74635974159048</v>
+        <v>22.29242433019906</v>
       </c>
       <c r="N5">
-        <v>16.44594502111195</v>
+        <v>23.91603279164929</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.00377396951825</v>
+        <v>28.79010431185246</v>
       </c>
       <c r="C6">
-        <v>13.10465517944772</v>
+        <v>10.37091317956711</v>
       </c>
       <c r="D6">
-        <v>2.68890840866537</v>
+        <v>3.248633628645798</v>
       </c>
       <c r="E6">
-        <v>5.844719001473945</v>
+        <v>9.249384723398993</v>
       </c>
       <c r="F6">
-        <v>42.48055934690588</v>
+        <v>57.37632260536611</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.9317888733163</v>
+        <v>9.699931435075877</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.639659512270205</v>
+        <v>11.70282067743589</v>
       </c>
       <c r="M6">
-        <v>14.72437241063808</v>
+        <v>22.29197839929428</v>
       </c>
       <c r="N6">
-        <v>16.45482525126868</v>
+        <v>23.91859322781216</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.44257378347361</v>
+        <v>28.85151154278653</v>
       </c>
       <c r="C7">
-        <v>13.44995457427242</v>
+        <v>10.46769914173208</v>
       </c>
       <c r="D7">
-        <v>2.710082850033525</v>
+        <v>3.266664147880525</v>
       </c>
       <c r="E7">
-        <v>5.864452458054649</v>
+        <v>9.253837596223777</v>
       </c>
       <c r="F7">
-        <v>42.80986205866584</v>
+        <v>57.38961661962541</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.92205631090087</v>
+        <v>9.696955861751109</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.65347510236109</v>
+        <v>11.69621379973292</v>
       </c>
       <c r="M7">
-        <v>14.87732893358866</v>
+        <v>22.29548630310006</v>
       </c>
       <c r="N7">
-        <v>16.39358374538594</v>
+        <v>23.90099811602152</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.33865937917929</v>
+        <v>29.13864049072093</v>
       </c>
       <c r="C8">
-        <v>14.90141841101024</v>
+        <v>10.89251240622517</v>
       </c>
       <c r="D8">
-        <v>2.895314866897737</v>
+        <v>3.343864014671925</v>
       </c>
       <c r="E8">
-        <v>5.95184316928418</v>
+        <v>9.273030333322662</v>
       </c>
       <c r="F8">
-        <v>44.32122307781675</v>
+        <v>57.47604333462374</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.880135386528281</v>
+        <v>9.684471572823645</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.721647437531904</v>
+        <v>11.67049262073112</v>
       </c>
       <c r="M8">
-        <v>15.55984935929441</v>
+        <v>22.32116101448032</v>
       </c>
       <c r="N8">
-        <v>16.13328554328531</v>
+        <v>23.82773621999416</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.89531747368753</v>
+        <v>29.75623174826058</v>
       </c>
       <c r="C9">
-        <v>17.49808904765621</v>
+        <v>11.70804933666505</v>
       </c>
       <c r="D9">
-        <v>3.380117617413898</v>
+        <v>3.486352041424167</v>
       </c>
       <c r="E9">
-        <v>6.125992059614605</v>
+        <v>9.309046628936315</v>
       </c>
       <c r="F9">
-        <v>47.49655912726777</v>
+        <v>57.74512274820415</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.801182263954767</v>
+        <v>9.662295882805154</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.882467881527966</v>
+        <v>11.63238140752484</v>
       </c>
       <c r="M9">
-        <v>16.91868408436929</v>
+        <v>22.40794414869565</v>
       </c>
       <c r="N9">
-        <v>15.66015749700009</v>
+        <v>23.69980657159574</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.40385592362914</v>
+        <v>30.23979210309301</v>
       </c>
       <c r="C10">
-        <v>19.26515317706988</v>
+        <v>12.2890918727344</v>
       </c>
       <c r="D10">
-        <v>3.720831729771924</v>
+        <v>3.585286108132792</v>
       </c>
       <c r="E10">
-        <v>6.257508172945172</v>
+        <v>9.334541539041604</v>
       </c>
       <c r="F10">
-        <v>49.96443870535354</v>
+        <v>58.00318329665982</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.74469252968191</v>
+        <v>9.647393097499915</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.018437059417653</v>
+        <v>11.61188460691332</v>
       </c>
       <c r="M10">
-        <v>17.92575966605864</v>
+        <v>22.49367241881273</v>
       </c>
       <c r="N10">
-        <v>15.33735415727529</v>
+        <v>23.6153988050694</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52298737646966</v>
+        <v>30.46547013018463</v>
       </c>
       <c r="C11">
-        <v>20.04151553668467</v>
+        <v>12.54811432529462</v>
       </c>
       <c r="D11">
-        <v>3.873401340950373</v>
+        <v>3.62898238061793</v>
       </c>
       <c r="E11">
-        <v>6.318619543272713</v>
+        <v>9.345934723957434</v>
       </c>
       <c r="F11">
-        <v>51.11900319566526</v>
+        <v>58.13356501851217</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.719205428480334</v>
+        <v>9.640911753624172</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.084483499417296</v>
+        <v>11.60418633049808</v>
       </c>
       <c r="M11">
-        <v>18.38564014377493</v>
+        <v>22.53737493345046</v>
       </c>
       <c r="N11">
-        <v>15.19652625125516</v>
+        <v>23.57907828992031</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.94378070985928</v>
+        <v>30.55168059710588</v>
       </c>
       <c r="C12">
-        <v>20.33184655471065</v>
+        <v>12.64533743405313</v>
       </c>
       <c r="D12">
-        <v>3.930919768972632</v>
+        <v>3.64533586842529</v>
       </c>
       <c r="E12">
-        <v>6.341996153411054</v>
+        <v>9.350219944382951</v>
       </c>
       <c r="F12">
-        <v>51.56111898395087</v>
+        <v>58.18479000950693</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.709573245971781</v>
+        <v>9.638500029779866</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.110127750314913</v>
+        <v>11.60150466037358</v>
       </c>
       <c r="M12">
-        <v>18.56007089161362</v>
+        <v>22.554593323555</v>
       </c>
       <c r="N12">
-        <v>15.14413466322684</v>
+        <v>23.56562331700719</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.85328493602577</v>
+        <v>30.53308133786409</v>
       </c>
       <c r="C13">
-        <v>20.26947628144517</v>
+        <v>12.62443859125059</v>
       </c>
       <c r="D13">
-        <v>3.918541923435504</v>
+        <v>3.641822528191192</v>
       </c>
       <c r="E13">
-        <v>6.336950233316001</v>
+        <v>9.349298336576318</v>
       </c>
       <c r="F13">
-        <v>51.46567692497803</v>
+        <v>58.17367568376153</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.711647043606546</v>
+        <v>9.639017545800272</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.104576063133</v>
+        <v>11.60207182604459</v>
       </c>
       <c r="M13">
-        <v>18.52249053431687</v>
+        <v>22.55085539640962</v>
       </c>
       <c r="N13">
-        <v>15.15537514135537</v>
+        <v>23.56850779343933</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55766506274776</v>
+        <v>30.47254806408145</v>
       </c>
       <c r="C14">
-        <v>20.06547278648366</v>
+        <v>12.55613077130127</v>
       </c>
       <c r="D14">
-        <v>3.878137974698421</v>
+        <v>3.6303316945585</v>
       </c>
       <c r="E14">
-        <v>6.320537720997025</v>
+        <v>9.346287853819515</v>
       </c>
       <c r="F14">
-        <v>51.15527576073971</v>
+        <v>58.13774230465785</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.718412665581074</v>
+        <v>9.6407124868048</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.086580368266966</v>
+        <v>11.6039610299865</v>
       </c>
       <c r="M14">
-        <v>18.39998464741929</v>
+        <v>22.538778133462</v>
       </c>
       <c r="N14">
-        <v>15.19219671769753</v>
+        <v>23.57796535149251</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37620563806609</v>
+        <v>30.43556542960567</v>
       </c>
       <c r="C15">
-        <v>19.94004741327851</v>
+        <v>12.51417502408223</v>
       </c>
       <c r="D15">
-        <v>3.853358985190484</v>
+        <v>3.623267903843314</v>
       </c>
       <c r="E15">
-        <v>6.310516835491072</v>
+        <v>9.344440060920576</v>
       </c>
       <c r="F15">
-        <v>50.96579647935043</v>
+        <v>58.11597279022897</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.722558958649556</v>
+        <v>9.641756230657652</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.075641039455466</v>
+        <v>11.60514862131356</v>
       </c>
       <c r="M15">
-        <v>18.32498487411442</v>
+        <v>22.53146738133476</v>
       </c>
       <c r="N15">
-        <v>15.21487541380043</v>
+        <v>23.58379729870336</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.33028725449973</v>
+        <v>30.22515241031901</v>
       </c>
       <c r="C16">
-        <v>19.21388701786647</v>
+        <v>12.27204866277476</v>
       </c>
       <c r="D16">
-        <v>3.710819732074084</v>
+        <v>3.582403666449474</v>
       </c>
       <c r="E16">
-        <v>6.253544362239971</v>
+        <v>9.333792875516099</v>
       </c>
       <c r="F16">
-        <v>49.88965213840113</v>
+        <v>57.99492264131073</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.74636149255484</v>
+        <v>9.647822645323457</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.01420768251236</v>
+        <v>11.61242039898456</v>
       </c>
       <c r="M16">
-        <v>17.89574250257846</v>
+        <v>22.49091041469273</v>
       </c>
       <c r="N16">
-        <v>15.34668442954615</v>
+        <v>23.61781424262064</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.68310123262314</v>
+        <v>30.0974829828116</v>
       </c>
       <c r="C17">
-        <v>18.76156664108894</v>
+        <v>12.12207998800809</v>
       </c>
       <c r="D17">
-        <v>3.622816987640614</v>
+        <v>3.556995720617052</v>
       </c>
       <c r="E17">
-        <v>6.218955808906498</v>
+        <v>9.3272089792359</v>
       </c>
       <c r="F17">
-        <v>49.23783957946512</v>
+        <v>57.92397876272241</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.761010020223396</v>
+        <v>9.651620355230087</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.977614845838962</v>
+        <v>11.61729761487996</v>
       </c>
       <c r="M17">
-        <v>17.63287582331237</v>
+        <v>22.4672299793775</v>
       </c>
       <c r="N17">
-        <v>15.42913212971462</v>
+        <v>23.63921460068998</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.30876886712139</v>
+        <v>30.02459202233211</v>
       </c>
       <c r="C18">
-        <v>18.49879727980652</v>
+        <v>12.03532883014758</v>
       </c>
       <c r="D18">
-        <v>3.571965771086179</v>
+        <v>3.542258783062229</v>
       </c>
       <c r="E18">
-        <v>6.199178782667101</v>
+        <v>9.323402823371588</v>
       </c>
       <c r="F18">
-        <v>48.86591321069168</v>
+        <v>57.88439736140388</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.769455998596851</v>
+        <v>9.653832761289461</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.956960215697324</v>
+        <v>11.62025591009094</v>
       </c>
       <c r="M18">
-        <v>17.48184297938273</v>
+        <v>22.45405289460662</v>
       </c>
       <c r="N18">
-        <v>15.47711505275451</v>
+        <v>23.65171900709742</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.18166415568876</v>
+        <v>30.00000741902501</v>
       </c>
       <c r="C19">
-        <v>18.40937216867115</v>
+        <v>12.00587493721649</v>
       </c>
       <c r="D19">
-        <v>3.554705596751387</v>
+        <v>3.537248150674446</v>
       </c>
       <c r="E19">
-        <v>6.192501379458093</v>
+        <v>9.322110805521421</v>
       </c>
       <c r="F19">
-        <v>48.74048900394317</v>
+        <v>57.87120637239678</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.772319502931315</v>
+        <v>9.654586671052662</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.950033477807787</v>
+        <v>11.62128383271306</v>
       </c>
       <c r="M19">
-        <v>17.43073322616993</v>
+        <v>22.44966770212439</v>
       </c>
       <c r="N19">
-        <v>15.49345570382845</v>
+        <v>23.65598635520192</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.75221048241831</v>
+        <v>30.1110181047247</v>
       </c>
       <c r="C20">
-        <v>18.80998471316168</v>
+        <v>12.13809621457026</v>
       </c>
       <c r="D20">
-        <v>3.632208664957207</v>
+        <v>3.559713203364967</v>
       </c>
       <c r="E20">
-        <v>6.222625330480554</v>
+        <v>9.327911838821512</v>
       </c>
       <c r="F20">
-        <v>49.30691586428326</v>
+        <v>57.93140432200812</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.75944861003628</v>
+        <v>9.651213179724701</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.981469374525482</v>
+        <v>11.61676258886759</v>
       </c>
       <c r="M20">
-        <v>17.66084165698702</v>
+        <v>22.4697049751166</v>
       </c>
       <c r="N20">
-        <v>15.42029688257546</v>
+        <v>23.63691626297423</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.64457531453893</v>
+        <v>30.49030832592218</v>
       </c>
       <c r="C21">
-        <v>20.12549037065041</v>
+        <v>12.57621861565169</v>
       </c>
       <c r="D21">
-        <v>3.890011744530636</v>
+        <v>3.633712116859988</v>
       </c>
       <c r="E21">
-        <v>6.325351650163627</v>
+        <v>9.347172893922671</v>
       </c>
       <c r="F21">
-        <v>51.24631183786881</v>
+        <v>58.14824667478175</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.716425011067808</v>
+        <v>9.640213486689143</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.091848665109462</v>
+        <v>11.60339979036239</v>
       </c>
       <c r="M21">
-        <v>18.43595943260921</v>
+        <v>22.54230741830704</v>
       </c>
       <c r="N21">
-        <v>15.18135524792242</v>
+        <v>23.57517932626459</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.8640218266228</v>
+        <v>30.7425416108897</v>
       </c>
       <c r="C22">
-        <v>20.96408003950433</v>
+        <v>12.85748626815443</v>
       </c>
       <c r="D22">
-        <v>4.057060521278501</v>
+        <v>3.6809456285757</v>
       </c>
       <c r="E22">
-        <v>6.393889215206134</v>
+        <v>9.359591438815322</v>
       </c>
       <c r="F22">
-        <v>52.54265442842541</v>
+        <v>58.30075320187805</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.688412555020099</v>
+        <v>9.633272868601576</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.167700968716718</v>
+        <v>11.59602728615274</v>
       </c>
       <c r="M22">
-        <v>18.94424424878239</v>
+        <v>22.59365399215803</v>
       </c>
       <c r="N22">
-        <v>15.03069983114798</v>
+        <v>23.53657249984476</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.21468431939886</v>
+        <v>30.60754548081956</v>
       </c>
       <c r="C23">
-        <v>20.51833819750418</v>
+        <v>12.70786331414567</v>
       </c>
       <c r="D23">
-        <v>3.968000835172764</v>
+        <v>3.655841108120513</v>
       </c>
       <c r="E23">
-        <v>6.357162364621567</v>
+        <v>9.352978857944871</v>
       </c>
       <c r="F23">
-        <v>51.84799841199571</v>
+        <v>58.2183762834043</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.703357640588295</v>
+        <v>9.636954562669475</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.126865838930581</v>
+        <v>11.59983771714636</v>
       </c>
       <c r="M23">
-        <v>18.67278607260842</v>
+        <v>22.5658954120829</v>
       </c>
       <c r="N23">
-        <v>15.11057541921197</v>
+        <v>23.55701825493139</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.72097323056719</v>
+        <v>30.10489728890272</v>
       </c>
       <c r="C24">
-        <v>18.78810340996422</v>
+        <v>12.1308569283258</v>
       </c>
       <c r="D24">
-        <v>3.627963495711632</v>
+        <v>3.558485032611156</v>
       </c>
       <c r="E24">
-        <v>6.220966005835907</v>
+        <v>9.327594141391311</v>
       </c>
       <c r="F24">
-        <v>49.27567774794298</v>
+        <v>57.92804347164397</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.760154446938363</v>
+        <v>9.651397173262382</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.979725551166825</v>
+        <v>11.61700399343726</v>
       </c>
       <c r="M24">
-        <v>17.64819801662215</v>
+        <v>22.46858466749114</v>
       </c>
       <c r="N24">
-        <v>15.42428948823347</v>
+        <v>23.63795471522349</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95141361144226</v>
+        <v>29.58366235797698</v>
       </c>
       <c r="C25">
-        <v>16.82125431785594</v>
+        <v>11.49010924548687</v>
       </c>
       <c r="D25">
-        <v>3.251960691994611</v>
+        <v>3.448792992601379</v>
       </c>
       <c r="E25">
-        <v>6.078405291367964</v>
+        <v>9.299474512422909</v>
       </c>
       <c r="F25">
-        <v>46.614461943681</v>
+        <v>57.66169323634106</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.822238179494788</v>
+        <v>9.668049792046599</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.835932045192855</v>
+        <v>11.64137281694567</v>
       </c>
       <c r="M25">
-        <v>16.54938236774263</v>
+        <v>22.3805883422199</v>
       </c>
       <c r="N25">
-        <v>15.78397458661621</v>
+        <v>23.73273149448165</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.2202491786634</v>
+        <v>26.42347503731429</v>
       </c>
       <c r="C2">
-        <v>11.00672983195742</v>
+        <v>19.99886229031765</v>
       </c>
       <c r="D2">
-        <v>3.364191789476482</v>
+        <v>9.388288595591561</v>
       </c>
       <c r="E2">
-        <v>9.278120118369966</v>
+        <v>30.77377411776587</v>
       </c>
       <c r="F2">
-        <v>57.50620784017602</v>
+        <v>63.56182861480174</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.681245611534155</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.66435812606972</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>22.33059044669317</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.80895137667833</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.98779264211935</v>
+        <v>24.38484812770638</v>
       </c>
       <c r="C3">
-        <v>10.67435376955665</v>
+        <v>18.46397124672555</v>
       </c>
       <c r="D3">
-        <v>3.304570384338744</v>
+        <v>8.849519637809475</v>
       </c>
       <c r="E3">
-        <v>9.263235039810452</v>
+        <v>28.31226926357528</v>
       </c>
       <c r="F3">
-        <v>57.42628700465458</v>
+        <v>59.19036081192125</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.690777016730125</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.68308512607782</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>22.30601294436343</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>23.86462593616423</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.85223907291067</v>
+        <v>23.08887446149549</v>
       </c>
       <c r="C4">
-        <v>10.46883087925419</v>
+        <v>17.49128058524117</v>
       </c>
       <c r="D4">
-        <v>3.266873852802869</v>
+        <v>8.5170926940605</v>
       </c>
       <c r="E4">
-        <v>9.253889449250595</v>
+        <v>26.76069239565582</v>
       </c>
       <c r="F4">
-        <v>57.38978736585813</v>
+        <v>56.45050333521635</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.696921398371323</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.69613837047828</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>22.29553293496956</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>23.90079462990975</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.79885519298272</v>
+        <v>22.5488165671452</v>
       </c>
       <c r="C5">
-        <v>10.38486423289609</v>
+        <v>17.0865842034985</v>
       </c>
       <c r="D5">
-        <v>3.251244784431305</v>
+        <v>8.381070846560414</v>
       </c>
       <c r="E5">
-        <v>9.250028918752069</v>
+        <v>26.11693298543749</v>
       </c>
       <c r="F5">
-        <v>57.37807621702649</v>
+        <v>55.31894217127885</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.699498972867117</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.70184883001646</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>22.29242433019906</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>23.91603279164929</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.79010431185246</v>
+        <v>22.45839791254529</v>
       </c>
       <c r="C6">
-        <v>10.37091317956711</v>
+        <v>17.01886368656693</v>
       </c>
       <c r="D6">
-        <v>3.248633628645798</v>
+        <v>8.358447793206571</v>
       </c>
       <c r="E6">
-        <v>9.249384723398993</v>
+        <v>26.00930803074007</v>
       </c>
       <c r="F6">
-        <v>57.37632260536611</v>
+        <v>55.13011678721351</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.699931435075877</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.70282067743589</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>22.29197839929428</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>23.91859322781216</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.85151154278653</v>
+        <v>23.08164037263805</v>
       </c>
       <c r="C7">
-        <v>10.46769914173208</v>
+        <v>17.4858572408119</v>
       </c>
       <c r="D7">
-        <v>3.266664147880525</v>
+        <v>8.515260655957032</v>
       </c>
       <c r="E7">
-        <v>9.253837596223777</v>
+        <v>26.75205855939403</v>
       </c>
       <c r="F7">
-        <v>57.38961661962541</v>
+        <v>56.43530467096111</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.696955861751109</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.69621379973292</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>22.29548630310006</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>23.90099811602152</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.13864049072093</v>
+        <v>25.72920989287825</v>
       </c>
       <c r="C8">
-        <v>10.89251240622517</v>
+        <v>19.47544971045632</v>
       </c>
       <c r="D8">
-        <v>3.343864014671925</v>
+        <v>9.202748790060824</v>
       </c>
       <c r="E8">
-        <v>9.273030333322662</v>
+        <v>29.93249018775545</v>
       </c>
       <c r="F8">
-        <v>57.47604333462374</v>
+        <v>62.06535951554758</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.684471572823645</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.67049262073112</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>22.32116101448032</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>23.82773621999416</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.75623174826058</v>
+        <v>30.61512095244731</v>
       </c>
       <c r="C9">
-        <v>11.70804933666505</v>
+        <v>23.17640264765281</v>
       </c>
       <c r="D9">
-        <v>3.486352041424167</v>
+        <v>10.54862083012397</v>
       </c>
       <c r="E9">
-        <v>9.309046628936315</v>
+        <v>35.92794154082248</v>
       </c>
       <c r="F9">
-        <v>57.74512274820415</v>
+        <v>72.75185367649365</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.662295882805154</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.63238140752484</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>22.40794414869565</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>23.69980657159574</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.23979210309301</v>
+        <v>34.10049648182904</v>
       </c>
       <c r="C10">
-        <v>12.2890918727344</v>
+        <v>25.84552666713169</v>
       </c>
       <c r="D10">
-        <v>3.585286108132792</v>
+        <v>11.55880171813876</v>
       </c>
       <c r="E10">
-        <v>9.334541539041604</v>
+        <v>40.33092135322991</v>
       </c>
       <c r="F10">
-        <v>58.00318329665982</v>
+        <v>80.7651489886414</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.647393097499915</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.61188460691332</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>22.49367241881273</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>23.6153988050694</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46547013018463</v>
+        <v>35.69037928621962</v>
       </c>
       <c r="C11">
-        <v>12.54811432529462</v>
+        <v>27.0728395066433</v>
       </c>
       <c r="D11">
-        <v>3.62898238061793</v>
+        <v>12.03142000939442</v>
       </c>
       <c r="E11">
-        <v>9.345934723957434</v>
+        <v>42.38294602322421</v>
       </c>
       <c r="F11">
-        <v>58.13356501851217</v>
+        <v>84.44266199602316</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.640911753624172</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.60418633049808</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>22.53737493345046</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>23.57907828992031</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.55168059710588</v>
+        <v>36.29636231448984</v>
       </c>
       <c r="C12">
-        <v>12.64533743405313</v>
+        <v>27.5424337298978</v>
       </c>
       <c r="D12">
-        <v>3.64533586842529</v>
+        <v>12.2133593901425</v>
       </c>
       <c r="E12">
-        <v>9.350219944382951</v>
+        <v>43.17331847737458</v>
       </c>
       <c r="F12">
-        <v>58.18479000950693</v>
+        <v>85.84726717030942</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.638500029779866</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.60150466037358</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>22.554593323555</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>23.56562331700719</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.53308133786409</v>
+        <v>36.16561187650132</v>
       </c>
       <c r="C13">
-        <v>12.62443859125059</v>
+        <v>27.4410234550847</v>
       </c>
       <c r="D13">
-        <v>3.641822528191192</v>
+        <v>12.17402115518742</v>
       </c>
       <c r="E13">
-        <v>9.349298336576318</v>
+        <v>43.00237729302156</v>
       </c>
       <c r="F13">
-        <v>58.17367568376153</v>
+        <v>85.54407671466596</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.639017545800272</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.60207182604459</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>22.55085539640962</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>23.56850779343933</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.47254806408145</v>
+        <v>35.74013170463798</v>
       </c>
       <c r="C14">
-        <v>12.55613077130127</v>
+        <v>27.11135533341043</v>
       </c>
       <c r="D14">
-        <v>3.6303316945585</v>
+        <v>12.04632091510731</v>
       </c>
       <c r="E14">
-        <v>9.346287853819515</v>
+        <v>42.44765844908596</v>
       </c>
       <c r="F14">
-        <v>58.13774230465785</v>
+        <v>84.5579263031873</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.6407124868048</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.6039610299865</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>22.538778133462</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>23.57796535149251</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.43556542960567</v>
+        <v>35.4801436419034</v>
       </c>
       <c r="C15">
-        <v>12.51417502408223</v>
+        <v>26.91016096761689</v>
       </c>
       <c r="D15">
-        <v>3.623267903843314</v>
+        <v>11.96852738362011</v>
       </c>
       <c r="E15">
-        <v>9.344440060920576</v>
+        <v>42.10984040862385</v>
       </c>
       <c r="F15">
-        <v>58.11597279022897</v>
+        <v>83.95571276964834</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.641756230657652</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.60514862131356</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>22.53146738133476</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>23.58379729870336</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.22515241031901</v>
+        <v>33.99693745489048</v>
       </c>
       <c r="C16">
-        <v>12.27204866277476</v>
+        <v>25.76581099699472</v>
       </c>
       <c r="D16">
-        <v>3.582403666449474</v>
+        <v>11.52826172298017</v>
       </c>
       <c r="E16">
-        <v>9.333792875516099</v>
+        <v>40.19828504984863</v>
       </c>
       <c r="F16">
-        <v>57.99492264131073</v>
+        <v>80.52603259143365</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.647822645323457</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.61242039898456</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>22.49091041469273</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>23.61781424262064</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.0974829828116</v>
+        <v>33.09015736458169</v>
       </c>
       <c r="C17">
-        <v>12.12207998800809</v>
+        <v>25.06893172664898</v>
       </c>
       <c r="D17">
-        <v>3.556995720617052</v>
+        <v>11.26217231165914</v>
       </c>
       <c r="E17">
-        <v>9.3272089792359</v>
+        <v>39.0419203436346</v>
       </c>
       <c r="F17">
-        <v>57.92397876272241</v>
+        <v>78.43472975276291</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.651620355230087</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.61729761487996</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>22.4672299793775</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>23.63921460068998</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.02459202233211</v>
+        <v>32.56876172698266</v>
       </c>
       <c r="C18">
-        <v>12.03532883014758</v>
+        <v>24.66911465548079</v>
       </c>
       <c r="D18">
-        <v>3.542258783062229</v>
+        <v>11.11027157901315</v>
       </c>
       <c r="E18">
-        <v>9.323402823371588</v>
+        <v>38.38094843792849</v>
       </c>
       <c r="F18">
-        <v>57.88439736140388</v>
+        <v>77.23433467117627</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.653832761289461</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.62025591009094</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>22.45405289460662</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>23.65171900709742</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.00000741902501</v>
+        <v>32.39217126398312</v>
       </c>
       <c r="C19">
-        <v>12.00587493721649</v>
+        <v>24.53384343894224</v>
       </c>
       <c r="D19">
-        <v>3.537248150674446</v>
+        <v>11.05901096618939</v>
       </c>
       <c r="E19">
-        <v>9.322110805521421</v>
+        <v>38.15771199574998</v>
       </c>
       <c r="F19">
-        <v>57.87120637239678</v>
+        <v>76.82814258416938</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.654586671052662</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.62128383271306</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>22.44966770212439</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>23.65598635520192</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.1110181047247</v>
+        <v>33.1866488529815</v>
       </c>
       <c r="C20">
-        <v>12.13809621457026</v>
+        <v>25.14299322364014</v>
       </c>
       <c r="D20">
-        <v>3.559713203364967</v>
+        <v>11.29037273589021</v>
       </c>
       <c r="E20">
-        <v>9.327911838821512</v>
+        <v>39.16455127020176</v>
       </c>
       <c r="F20">
-        <v>57.93140432200812</v>
+        <v>78.6570523052777</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.651213179724701</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.61676258886759</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>22.4697049751166</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>23.63691626297423</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.49030832592218</v>
+        <v>35.86496630445517</v>
       </c>
       <c r="C21">
-        <v>12.57621861565169</v>
+        <v>27.20802630276624</v>
       </c>
       <c r="D21">
-        <v>3.633712116859988</v>
+        <v>12.08373806170882</v>
       </c>
       <c r="E21">
-        <v>9.347172893922671</v>
+        <v>42.6101686235658</v>
       </c>
       <c r="F21">
-        <v>58.14824667478175</v>
+        <v>84.84718327092978</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.640213486689143</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.60339979036239</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>22.54230741830704</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>23.57517932626459</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.7425416108897</v>
+        <v>37.6408925077243</v>
       </c>
       <c r="C22">
-        <v>12.85748626815443</v>
+        <v>28.58817570060632</v>
       </c>
       <c r="D22">
-        <v>3.6809456285757</v>
+        <v>12.62043690929638</v>
       </c>
       <c r="E22">
-        <v>9.359591438815322</v>
+        <v>44.94478676273031</v>
       </c>
       <c r="F22">
-        <v>58.30075320187805</v>
+        <v>88.96865687882394</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.633272868601576</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.59602728615274</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>22.59365399215803</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>23.53657249984476</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.60754548081956</v>
+        <v>36.68925693826734</v>
       </c>
       <c r="C23">
-        <v>12.70786331414567</v>
+        <v>27.84746056300988</v>
       </c>
       <c r="D23">
-        <v>3.655841108120513</v>
+        <v>12.33183565613301</v>
       </c>
       <c r="E23">
-        <v>9.352978857944871</v>
+        <v>43.68836261057383</v>
       </c>
       <c r="F23">
-        <v>58.2183762834043</v>
+        <v>86.75872425500366</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.636954562669475</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.59983771714636</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>22.5658954120829</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>23.55701825493139</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.10489728890272</v>
+        <v>33.14302551706284</v>
       </c>
       <c r="C24">
-        <v>12.1308569283258</v>
+        <v>25.10950764703824</v>
       </c>
       <c r="D24">
-        <v>3.558485032611156</v>
+        <v>11.27762004292856</v>
       </c>
       <c r="E24">
-        <v>9.327594141391311</v>
+        <v>39.10909830811909</v>
       </c>
       <c r="F24">
-        <v>57.92804347164397</v>
+        <v>78.55653480363637</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.651397173262382</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.61700399343726</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>22.46858466749114</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>23.63795471522349</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.58366235797698</v>
+        <v>29.31887174341286</v>
       </c>
       <c r="C25">
-        <v>11.49010924548687</v>
+        <v>22.19033144700975</v>
       </c>
       <c r="D25">
-        <v>3.448792992601379</v>
+        <v>10.18291235798912</v>
       </c>
       <c r="E25">
-        <v>9.299474512422909</v>
+        <v>34.31926875976249</v>
       </c>
       <c r="F25">
-        <v>57.66169323634106</v>
+        <v>69.87664922851232</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.668049792046599</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.64137281694567</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>22.3805883422199</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>23.73273149448165</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,31 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.42347503731429</v>
+        <v>24.50420904970306</v>
       </c>
       <c r="C2">
-        <v>19.99886229031765</v>
+        <v>18.99597012463895</v>
       </c>
       <c r="D2">
-        <v>9.388288595591561</v>
+        <v>9.96199756363934</v>
       </c>
       <c r="E2">
-        <v>30.77377411776587</v>
+        <v>29.23895826645737</v>
       </c>
       <c r="F2">
-        <v>63.56182861480174</v>
+        <v>62.96882729145303</v>
+      </c>
+      <c r="H2">
+        <v>3.175067942175748</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>3.161370628994727</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,31 +462,37 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.38484812770638</v>
+        <v>22.81167601953769</v>
       </c>
       <c r="C3">
-        <v>18.46397124672555</v>
+        <v>17.67332895482545</v>
       </c>
       <c r="D3">
-        <v>8.849519637809475</v>
+        <v>9.414236279714821</v>
       </c>
       <c r="E3">
-        <v>28.31226926357528</v>
+        <v>27.15706842397482</v>
       </c>
       <c r="F3">
-        <v>59.19036081192125</v>
+        <v>58.97758714041973</v>
+      </c>
+      <c r="H3">
+        <v>2.796104917827295</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>2.790235915058584</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -497,31 +509,37 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.08887446149549</v>
+        <v>21.71490966773459</v>
       </c>
       <c r="C4">
-        <v>17.49128058524117</v>
+        <v>16.8277140196134</v>
       </c>
       <c r="D4">
-        <v>8.5170926940605</v>
+        <v>9.060596444262478</v>
       </c>
       <c r="E4">
-        <v>26.76069239565582</v>
+        <v>25.81478537388777</v>
       </c>
       <c r="F4">
-        <v>56.45050333521635</v>
+        <v>56.40040575612949</v>
+      </c>
+      <c r="H4">
+        <v>2.557827158471384</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>2.558738127513809</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -538,31 +556,37 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.5488165671452</v>
+        <v>21.25281048880145</v>
       </c>
       <c r="C5">
-        <v>17.0865842034985</v>
+        <v>16.48990452603446</v>
       </c>
       <c r="D5">
-        <v>8.381070846560414</v>
+        <v>8.894838766584201</v>
       </c>
       <c r="E5">
-        <v>26.11693298543749</v>
+        <v>25.25041628203831</v>
       </c>
       <c r="F5">
-        <v>55.31894217127885</v>
+        <v>55.24233316866628</v>
+      </c>
+      <c r="H5">
+        <v>2.458561773377472</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>2.485158744903282</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -579,31 +603,37 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.45839791254529</v>
+        <v>21.17456370428346</v>
       </c>
       <c r="C6">
-        <v>17.01886368656693</v>
+        <v>16.45209609744276</v>
       </c>
       <c r="D6">
-        <v>8.358447793206571</v>
+        <v>8.845918957163175</v>
       </c>
       <c r="E6">
-        <v>26.00930803074007</v>
+        <v>25.1544691964512</v>
       </c>
       <c r="F6">
-        <v>55.13011678721351</v>
+        <v>54.95515924199994</v>
+      </c>
+      <c r="H6">
+        <v>2.441166079571061</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>2.507652289649205</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -620,31 +650,37 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.08164037263805</v>
+        <v>21.70699561453816</v>
       </c>
       <c r="C7">
-        <v>17.4858572408119</v>
+        <v>16.87314497502975</v>
       </c>
       <c r="D7">
-        <v>8.515260655957032</v>
+        <v>9.001517021688759</v>
       </c>
       <c r="E7">
-        <v>26.75205855939403</v>
+        <v>25.80381999532313</v>
       </c>
       <c r="F7">
-        <v>56.43530467096111</v>
+        <v>56.1361043495985</v>
+      </c>
+      <c r="H7">
+        <v>2.554249734692535</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>2.557324325531065</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -661,31 +697,37 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.72920989287825</v>
+        <v>23.93000819091643</v>
       </c>
       <c r="C8">
-        <v>19.47544971045632</v>
+        <v>18.60701513863838</v>
       </c>
       <c r="D8">
-        <v>9.202748790060824</v>
+        <v>9.7052546332592</v>
       </c>
       <c r="E8">
-        <v>29.93249018775545</v>
+        <v>28.52951993387707</v>
       </c>
       <c r="F8">
-        <v>62.06535951554758</v>
+        <v>61.31106227342309</v>
+      </c>
+      <c r="H8">
+        <v>3.04251265477297</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>3.032544386351247</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -702,31 +744,37 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.61512095244731</v>
+        <v>27.84451181868868</v>
       </c>
       <c r="C9">
-        <v>23.17640264765281</v>
+        <v>21.67149755245621</v>
       </c>
       <c r="D9">
-        <v>10.54862083012397</v>
+        <v>11.04373075123997</v>
       </c>
       <c r="E9">
-        <v>35.92794154082248</v>
+        <v>33.3864671387559</v>
       </c>
       <c r="F9">
-        <v>72.75185367649365</v>
+        <v>70.86696509844549</v>
+      </c>
+      <c r="H9">
+        <v>3.963971834968385</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>3.943313764536422</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -743,31 +791,37 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.10049648182904</v>
+        <v>30.44244650853949</v>
       </c>
       <c r="C10">
-        <v>25.84552666713169</v>
+        <v>23.76251712429878</v>
       </c>
       <c r="D10">
-        <v>11.55880171813876</v>
+        <v>11.68881619875085</v>
       </c>
       <c r="E10">
-        <v>40.33092135322991</v>
+        <v>35.77200131188371</v>
       </c>
       <c r="F10">
-        <v>80.7651489886414</v>
+        <v>76.20826554076999</v>
+      </c>
+      <c r="H10">
+        <v>4.569853313333407</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>4.576057031922176</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -784,31 +838,37 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.69037928621962</v>
+        <v>31.43380990049414</v>
       </c>
       <c r="C11">
-        <v>27.0728395066433</v>
+        <v>24.45762793764946</v>
       </c>
       <c r="D11">
-        <v>12.03142000939442</v>
+        <v>9.915851173858009</v>
       </c>
       <c r="E11">
-        <v>42.38294602322421</v>
+        <v>29.1843126271358</v>
       </c>
       <c r="F11">
-        <v>84.44266199602316</v>
+        <v>69.7766915570696</v>
+      </c>
+      <c r="H11">
+        <v>4.869112158967742</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>4.63710459747465</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -825,31 +885,37 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.29636231448984</v>
+        <v>31.75709049266179</v>
       </c>
       <c r="C12">
-        <v>27.5424337298978</v>
+        <v>24.59073087873544</v>
       </c>
       <c r="D12">
-        <v>12.2133593901425</v>
+        <v>8.406072874982051</v>
       </c>
       <c r="E12">
-        <v>43.17331847737458</v>
+        <v>23.21441459003756</v>
       </c>
       <c r="F12">
-        <v>85.84726717030942</v>
+        <v>63.57661241955847</v>
+      </c>
+      <c r="H12">
+        <v>5.577586769719576</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>4.582299063383805</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -866,31 +932,37 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.16561187650132</v>
+        <v>31.59731146751698</v>
       </c>
       <c r="C13">
-        <v>27.4410234550847</v>
+        <v>24.36484600193319</v>
       </c>
       <c r="D13">
-        <v>12.17402115518742</v>
+        <v>6.932587764748564</v>
       </c>
       <c r="E13">
-        <v>43.00237729302156</v>
+        <v>17.24838053067913</v>
       </c>
       <c r="F13">
-        <v>85.54407671466596</v>
+        <v>56.70254170804244</v>
+      </c>
+      <c r="H13">
+        <v>6.502436846921437</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>4.433819122071525</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -907,31 +979,37 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.74013170463798</v>
+        <v>31.26839907607582</v>
       </c>
       <c r="C14">
-        <v>27.11135533341043</v>
+        <v>24.05990441599068</v>
       </c>
       <c r="D14">
-        <v>12.04632091510731</v>
+        <v>5.937113211909736</v>
       </c>
       <c r="E14">
-        <v>42.44765844908596</v>
+        <v>13.14371382201633</v>
       </c>
       <c r="F14">
-        <v>84.5579263031873</v>
+        <v>51.45255304149751</v>
+      </c>
+      <c r="H14">
+        <v>7.245731346518967</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>4.291479843607386</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -948,31 +1026,37 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.4801436419034</v>
+        <v>31.08215883349928</v>
       </c>
       <c r="C15">
-        <v>26.91016096761689</v>
+        <v>23.92042472989704</v>
       </c>
       <c r="D15">
-        <v>11.96852738362011</v>
+        <v>5.686296471722095</v>
       </c>
       <c r="E15">
-        <v>42.10984040862385</v>
+        <v>12.13984989161296</v>
       </c>
       <c r="F15">
-        <v>83.95571276964834</v>
+        <v>49.92947682169017</v>
+      </c>
+      <c r="H15">
+        <v>7.414237290363158</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>4.234259723331081</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -989,31 +1073,37 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.99693745489048</v>
+        <v>30.05449510218943</v>
       </c>
       <c r="C16">
-        <v>25.76581099699472</v>
+        <v>23.14106118984816</v>
       </c>
       <c r="D16">
-        <v>11.52826172298017</v>
+        <v>5.634629287952119</v>
       </c>
       <c r="E16">
-        <v>40.19828504984863</v>
+        <v>11.80880617853414</v>
       </c>
       <c r="F16">
-        <v>80.52603259143365</v>
+        <v>48.50235795135296</v>
+      </c>
+      <c r="H16">
+        <v>7.097561057376859</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>4.002405250702986</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1030,31 +1120,37 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.09015736458169</v>
+        <v>29.42892805100504</v>
       </c>
       <c r="C17">
-        <v>25.06893172664898</v>
+        <v>22.69641512682578</v>
       </c>
       <c r="D17">
-        <v>11.26217231165914</v>
+        <v>6.107033651683304</v>
       </c>
       <c r="E17">
-        <v>39.0419203436346</v>
+        <v>13.7991515173364</v>
       </c>
       <c r="F17">
-        <v>78.43472975276291</v>
+        <v>50.30578505977651</v>
+      </c>
+      <c r="H17">
+        <v>6.399117828690406</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>3.896912974937392</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1071,31 +1167,37 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.56876172698266</v>
+        <v>29.09772631260649</v>
       </c>
       <c r="C18">
-        <v>24.66911465548079</v>
+        <v>22.47438765330317</v>
       </c>
       <c r="D18">
-        <v>11.11027157901315</v>
+        <v>7.206068691316912</v>
       </c>
       <c r="E18">
-        <v>38.38094843792849</v>
+        <v>18.3451214134091</v>
       </c>
       <c r="F18">
-        <v>77.23433467117627</v>
+        <v>55.31394828176778</v>
+      </c>
+      <c r="H18">
+        <v>5.388379083672295</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>3.898093491890966</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1112,31 +1214,37 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.39217126398312</v>
+        <v>29.04027050629224</v>
       </c>
       <c r="C19">
-        <v>24.53384343894224</v>
+        <v>22.5494336768767</v>
       </c>
       <c r="D19">
-        <v>11.05901096618939</v>
+        <v>8.726175218360318</v>
       </c>
       <c r="E19">
-        <v>38.15771199574998</v>
+        <v>24.68808366150145</v>
       </c>
       <c r="F19">
-        <v>76.82814258416938</v>
+        <v>62.1391476044794</v>
+      </c>
+      <c r="H19">
+        <v>4.482715195060345</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>4.004344725622964</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1153,31 +1261,37 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.1866488529815</v>
+        <v>29.77011505302555</v>
       </c>
       <c r="C20">
-        <v>25.14299322364014</v>
+        <v>23.33617767899532</v>
       </c>
       <c r="D20">
-        <v>11.29037273589021</v>
+        <v>11.36379599668986</v>
       </c>
       <c r="E20">
-        <v>39.16455127020176</v>
+        <v>35.10227964631333</v>
       </c>
       <c r="F20">
-        <v>78.6570523052777</v>
+        <v>74.16862513086238</v>
+      </c>
+      <c r="H20">
+        <v>4.401423776380235</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>4.404245607115837</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1194,31 +1308,37 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86496630445517</v>
+        <v>31.7111872455107</v>
       </c>
       <c r="C21">
-        <v>27.20802630276624</v>
+        <v>24.9210699039247</v>
       </c>
       <c r="D21">
-        <v>12.08373806170882</v>
+        <v>12.23709605280165</v>
       </c>
       <c r="E21">
-        <v>42.6101686235658</v>
+        <v>38.25446208494751</v>
       </c>
       <c r="F21">
-        <v>84.84718327092978</v>
+        <v>79.79845908273609</v>
+      </c>
+      <c r="H21">
+        <v>4.945779170588744</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>4.932425038480163</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1235,31 +1355,37 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.6408925077243</v>
+        <v>32.93184815393736</v>
       </c>
       <c r="C22">
-        <v>28.58817570060632</v>
+        <v>25.87651622743631</v>
       </c>
       <c r="D22">
-        <v>12.62043690929638</v>
+        <v>12.73286506220662</v>
       </c>
       <c r="E22">
-        <v>44.94478676273031</v>
+        <v>39.81103740819038</v>
       </c>
       <c r="F22">
-        <v>88.96865687882394</v>
+        <v>83.11018563579114</v>
+      </c>
+      <c r="H22">
+        <v>5.276999036934564</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>5.267901108184306</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1276,31 +1402,37 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.68925693826734</v>
+        <v>32.28696165357778</v>
       </c>
       <c r="C23">
-        <v>27.84746056300988</v>
+        <v>25.32849659325503</v>
       </c>
       <c r="D23">
-        <v>12.33183565613301</v>
+        <v>12.5236059460957</v>
       </c>
       <c r="E23">
-        <v>43.68836261057383</v>
+        <v>38.98920444367178</v>
       </c>
       <c r="F23">
-        <v>86.75872425500366</v>
+        <v>81.57543055012403</v>
+      </c>
+      <c r="H23">
+        <v>5.103098874419724</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>5.090924533227374</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1317,31 +1449,37 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.14302551706284</v>
+        <v>29.75410850457814</v>
       </c>
       <c r="C24">
-        <v>25.10950764703824</v>
+        <v>23.27069290353974</v>
       </c>
       <c r="D24">
-        <v>11.27762004292856</v>
+        <v>11.62330803542006</v>
       </c>
       <c r="E24">
-        <v>39.10909830811909</v>
+        <v>35.7807733409719</v>
       </c>
       <c r="F24">
-        <v>78.55653480363637</v>
+        <v>75.23250871680625</v>
+      </c>
+      <c r="H24">
+        <v>4.438744010565634</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>4.419562322601108</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1358,31 +1496,37 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.31887174341286</v>
+        <v>26.82863147840275</v>
       </c>
       <c r="C25">
-        <v>22.19033144700975</v>
+        <v>20.94169776771453</v>
       </c>
       <c r="D25">
-        <v>10.18291235798912</v>
+        <v>10.60475007460902</v>
       </c>
       <c r="E25">
-        <v>34.31926875976249</v>
+        <v>32.11666396179469</v>
       </c>
       <c r="F25">
-        <v>69.87664922851232</v>
+        <v>68.00101855804014</v>
+      </c>
+      <c r="H25">
+        <v>3.714172362288333</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>3.696257700969863</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1397,6 +1541,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
@@ -427,37 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.50420904970306</v>
+        <v>13.15886764000083</v>
       </c>
       <c r="C2">
-        <v>18.99597012463895</v>
+        <v>7.462048855499266</v>
       </c>
       <c r="D2">
-        <v>9.96199756363934</v>
+        <v>2.693823771289425</v>
       </c>
       <c r="E2">
-        <v>29.23895826645737</v>
+        <v>4.796789376553945</v>
       </c>
       <c r="F2">
-        <v>62.96882729145303</v>
+        <v>45.0797500448222</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.175067942175748</v>
+        <v>4.815596535470627</v>
       </c>
       <c r="I2">
-        <v>3.161370628994727</v>
+        <v>5.454530539833984</v>
+      </c>
+      <c r="J2">
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31.68432192086116</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.612467426898421</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.63687459312686</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.389801838044705</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,37 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.81167601953769</v>
+        <v>12.40043597336053</v>
       </c>
       <c r="C3">
-        <v>17.67332895482545</v>
+        <v>6.958510051112619</v>
       </c>
       <c r="D3">
-        <v>9.414236279714821</v>
+        <v>2.705803728429739</v>
       </c>
       <c r="E3">
-        <v>27.15706842397482</v>
+        <v>4.633496378861523</v>
       </c>
       <c r="F3">
-        <v>58.97758714041973</v>
+        <v>43.58542334654938</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.796104917827295</v>
+        <v>5.099677360783825</v>
       </c>
       <c r="I3">
-        <v>2.790235915058584</v>
+        <v>5.691181207635335</v>
+      </c>
+      <c r="J3">
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>30.80574928454257</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.502814417243211</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.04720000993261</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.19539558278994</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -521,37 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.71490966773459</v>
+        <v>11.91317053789679</v>
       </c>
       <c r="C4">
-        <v>16.8277140196134</v>
+        <v>6.676214771095246</v>
       </c>
       <c r="D4">
-        <v>9.060596444262478</v>
+        <v>2.711929350760895</v>
       </c>
       <c r="E4">
-        <v>25.81478537388777</v>
+        <v>4.530311791993292</v>
       </c>
       <c r="F4">
-        <v>56.40040575612949</v>
+        <v>42.63701189621509</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.557827158471384</v>
+        <v>5.279964119801652</v>
       </c>
       <c r="I4">
-        <v>2.558738127513809</v>
+        <v>5.841773446557165</v>
+      </c>
+      <c r="J4">
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>30.24755122618214</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.432987916399219</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.67351263452058</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.074103073062481</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -568,37 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.25281048880145</v>
+        <v>11.70844495900099</v>
       </c>
       <c r="C5">
-        <v>16.48990452603446</v>
+        <v>6.565725660119027</v>
       </c>
       <c r="D5">
-        <v>8.894838766584201</v>
+        <v>2.712655437323071</v>
       </c>
       <c r="E5">
-        <v>25.25041628203831</v>
+        <v>4.48771121421294</v>
       </c>
       <c r="F5">
-        <v>55.24233316866628</v>
+        <v>42.21082589191396</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.458561773377472</v>
+        <v>5.355600757926628</v>
       </c>
       <c r="I5">
-        <v>2.485158744903282</v>
+        <v>5.90685742681891</v>
+      </c>
+      <c r="J5">
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>29.99098292428068</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.402486839867177</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.51982425895091</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.025967830592509</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -615,37 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.17456370428346</v>
+        <v>11.67306129154653</v>
       </c>
       <c r="C6">
-        <v>16.45209609744276</v>
+        <v>6.554461675668477</v>
       </c>
       <c r="D6">
-        <v>8.845918957163175</v>
+        <v>2.710991317742037</v>
       </c>
       <c r="E6">
-        <v>25.1544691964512</v>
+        <v>4.480812773594291</v>
       </c>
       <c r="F6">
-        <v>54.95515924199994</v>
+        <v>42.10007230396383</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.441166079571061</v>
+        <v>5.369063089960862</v>
       </c>
       <c r="I6">
-        <v>2.507652289649205</v>
+        <v>5.920726819980366</v>
+      </c>
+      <c r="J6">
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>29.9180380285027</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.395652166082106</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.49577726031437</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.020070195342524</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -662,37 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.70699561453816</v>
+        <v>11.9075186252457</v>
       </c>
       <c r="C7">
-        <v>16.87314497502975</v>
+        <v>6.693832907014096</v>
       </c>
       <c r="D7">
-        <v>9.001517021688759</v>
+        <v>2.707123315689427</v>
       </c>
       <c r="E7">
-        <v>25.80381999532313</v>
+        <v>4.530330650594821</v>
       </c>
       <c r="F7">
-        <v>56.1361043495985</v>
+        <v>42.52451972238111</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2.554249734692535</v>
+        <v>5.283173040238574</v>
       </c>
       <c r="I7">
-        <v>2.557324325531065</v>
+        <v>5.850572611340237</v>
+      </c>
+      <c r="J7">
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>30.16274719155235</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.42788876444927</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.67579672184053</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.079185632251393</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -709,37 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93000819091643</v>
+        <v>12.89817325313328</v>
       </c>
       <c r="C8">
-        <v>18.60701513863838</v>
+        <v>7.303966544330573</v>
       </c>
       <c r="D8">
-        <v>9.7052546332592</v>
+        <v>2.691999558286466</v>
       </c>
       <c r="E8">
-        <v>28.52951993387707</v>
+        <v>4.741837509992613</v>
       </c>
       <c r="F8">
-        <v>61.31106227342309</v>
+        <v>44.43566893897093</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3.04251265477297</v>
+        <v>4.9151636516664</v>
       </c>
       <c r="I8">
-        <v>3.032544386351247</v>
+        <v>5.54510833506696</v>
+      </c>
+      <c r="J8">
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>31.28145940263289</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.569155175375623</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.44132785459056</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.330506954754989</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -756,37 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.84451181868868</v>
+        <v>14.66983687978676</v>
       </c>
       <c r="C9">
-        <v>21.67149755245621</v>
+        <v>8.534783404703008</v>
       </c>
       <c r="D9">
-        <v>11.04373075123997</v>
+        <v>2.660546102403116</v>
       </c>
       <c r="E9">
-        <v>33.3864671387559</v>
+        <v>5.132395941920403</v>
       </c>
       <c r="F9">
-        <v>70.86696509844549</v>
+        <v>48.10267991981512</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3.963971834968385</v>
+        <v>4.234816142891945</v>
       </c>
       <c r="I9">
-        <v>3.943313764536422</v>
+        <v>4.973801813422744</v>
+      </c>
+      <c r="J9">
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>33.45654326980743</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.834451965012127</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.8370884753058</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.796532687917221</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -803,37 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.44244650853949</v>
+        <v>15.85980336152158</v>
       </c>
       <c r="C10">
-        <v>23.76251712429878</v>
+        <v>9.379258029418121</v>
       </c>
       <c r="D10">
-        <v>11.68881619875085</v>
+        <v>2.612548163143793</v>
       </c>
       <c r="E10">
-        <v>35.77200131188371</v>
+        <v>5.348213633107304</v>
       </c>
       <c r="F10">
-        <v>76.20826554076999</v>
+        <v>50.11372137984916</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4.569853313333407</v>
+        <v>3.790591474958236</v>
       </c>
       <c r="I10">
-        <v>4.576057031922176</v>
+        <v>4.592347544680055</v>
+      </c>
+      <c r="J10">
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>34.59239189280667</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.971355015985972</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.79899394686357</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.060141554711806</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -850,37 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.43380990049414</v>
+        <v>16.38205131255406</v>
       </c>
       <c r="C11">
-        <v>24.45762793764946</v>
+        <v>9.747673319776794</v>
       </c>
       <c r="D11">
-        <v>9.915851173858009</v>
+        <v>2.464652917968847</v>
       </c>
       <c r="E11">
-        <v>29.1843126271358</v>
+        <v>5.012354403792022</v>
       </c>
       <c r="F11">
-        <v>69.7766915570696</v>
+        <v>46.91554724064454</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4.869112158967742</v>
+        <v>4.32980069957162</v>
       </c>
       <c r="I11">
-        <v>4.63710459747465</v>
+        <v>4.523709711458487</v>
+      </c>
+      <c r="J11">
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>32.24718235773513</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.695782743644475</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.23615681808133</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.601350952752953</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -897,37 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.75709049266179</v>
+        <v>16.58169032711004</v>
       </c>
       <c r="C12">
-        <v>24.59073087873544</v>
+        <v>9.864219642154353</v>
       </c>
       <c r="D12">
-        <v>8.406072874982051</v>
+        <v>2.380525649043913</v>
       </c>
       <c r="E12">
-        <v>23.21441459003756</v>
+        <v>4.776975146118486</v>
       </c>
       <c r="F12">
-        <v>63.57661241955847</v>
+        <v>43.93588626717033</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>5.577586769719576</v>
+        <v>5.340082709690272</v>
       </c>
       <c r="I12">
-        <v>4.582299063383805</v>
+        <v>4.524733590070461</v>
+      </c>
+      <c r="J12">
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>30.16191369453594</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.513014520106521</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.39979601285817</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.162266768870196</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -944,37 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.59731146751698</v>
+        <v>16.54810868128771</v>
       </c>
       <c r="C13">
-        <v>24.36484600193319</v>
+        <v>9.818170843018773</v>
       </c>
       <c r="D13">
-        <v>6.932587764748564</v>
+        <v>2.333852998214274</v>
       </c>
       <c r="E13">
-        <v>17.24838053067913</v>
+        <v>4.613200563927247</v>
       </c>
       <c r="F13">
-        <v>56.70254170804244</v>
+        <v>40.75551745336475</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>6.502436846921437</v>
+        <v>6.550225427034033</v>
       </c>
       <c r="I13">
-        <v>4.433819122071525</v>
+        <v>4.592128514706866</v>
+      </c>
+      <c r="J13">
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>28.02063844435328</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.388220653471034</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.37272170064251</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.717834786921058</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -991,37 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.26839907607582</v>
+        <v>16.41830124607314</v>
       </c>
       <c r="C14">
-        <v>24.05990441599068</v>
+        <v>9.716300571509603</v>
       </c>
       <c r="D14">
-        <v>5.937113211909736</v>
+        <v>2.321226286867731</v>
       </c>
       <c r="E14">
-        <v>13.14371382201633</v>
+        <v>4.550003129239076</v>
       </c>
       <c r="F14">
-        <v>51.45255304149751</v>
+        <v>38.40538671295267</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>7.245731346518967</v>
+        <v>7.463365892642869</v>
       </c>
       <c r="I14">
-        <v>4.291479843607386</v>
+        <v>4.671112015101583</v>
+      </c>
+      <c r="J14">
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.48449645047081</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.339285064664357</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.26851016127788</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.410017546727598</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1038,37 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.08215883349928</v>
+        <v>16.33573206082777</v>
       </c>
       <c r="C15">
-        <v>23.92042472989704</v>
+        <v>9.661939467494554</v>
       </c>
       <c r="D15">
-        <v>5.686296471722095</v>
+        <v>2.323491608367373</v>
       </c>
       <c r="E15">
-        <v>12.13984989161296</v>
+        <v>4.536242647215169</v>
       </c>
       <c r="F15">
-        <v>49.92947682169017</v>
+        <v>37.75544752378092</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>7.414237290363158</v>
+        <v>7.686319463990333</v>
       </c>
       <c r="I15">
-        <v>4.234259723331081</v>
+        <v>4.708864888482359</v>
+      </c>
+      <c r="J15">
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.07185336431888</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.329350471815518</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.20379214086595</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.334137854911566</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1085,37 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.05449510218943</v>
+        <v>15.85415223608508</v>
       </c>
       <c r="C16">
-        <v>23.14106118984816</v>
+        <v>9.331318763833989</v>
       </c>
       <c r="D16">
-        <v>5.634629287952119</v>
+        <v>2.34971759152325</v>
       </c>
       <c r="E16">
-        <v>11.80880617853414</v>
+        <v>4.465912770413847</v>
       </c>
       <c r="F16">
-        <v>48.50235795135296</v>
+        <v>37.36830542906188</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>7.097561057376859</v>
+        <v>7.57770955588499</v>
       </c>
       <c r="I16">
-        <v>4.002405250702986</v>
+        <v>4.862373615341233</v>
+      </c>
+      <c r="J16">
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.92209171386809</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.289779646346656</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.81563622009909</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.303800329626883</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1132,37 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.42892805100504</v>
+        <v>15.54889932099007</v>
       </c>
       <c r="C17">
-        <v>22.69641512682578</v>
+        <v>9.129993960702725</v>
       </c>
       <c r="D17">
-        <v>6.107033651683304</v>
+        <v>2.374873800264222</v>
       </c>
       <c r="E17">
-        <v>13.7991515173364</v>
+        <v>4.434539443209374</v>
       </c>
       <c r="F17">
-        <v>50.30578505977651</v>
+        <v>38.33869885498497</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>6.399117828690406</v>
+        <v>6.994652213316406</v>
       </c>
       <c r="I17">
-        <v>3.896912974937392</v>
+        <v>4.939226753814424</v>
+      </c>
+      <c r="J17">
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.62403291831062</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.277539803673451</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.57023339789343</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.443545815115701</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1179,37 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.09772631260649</v>
+        <v>15.3676464277229</v>
       </c>
       <c r="C18">
-        <v>22.47438765330317</v>
+        <v>9.008089069257821</v>
       </c>
       <c r="D18">
-        <v>7.206068691316912</v>
+        <v>2.4145133421013</v>
       </c>
       <c r="E18">
-        <v>18.3451214134091</v>
+        <v>4.494906245552678</v>
       </c>
       <c r="F18">
-        <v>55.31394828176778</v>
+        <v>40.69250099793052</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5.388379083672295</v>
+        <v>6.003473836076186</v>
       </c>
       <c r="I18">
-        <v>3.898093491890966</v>
+        <v>4.947029479861273</v>
+      </c>
+      <c r="J18">
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>28.23314333787769</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.331811676603123</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.41928682584766</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.756473292104371</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1226,37 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.04027050629224</v>
+        <v>15.29569538697847</v>
       </c>
       <c r="C19">
-        <v>22.5494336768767</v>
+        <v>8.987548634598159</v>
       </c>
       <c r="D19">
-        <v>8.726175218360318</v>
+        <v>2.481362793325466</v>
       </c>
       <c r="E19">
-        <v>24.68808366150145</v>
+        <v>4.709797824584957</v>
       </c>
       <c r="F19">
-        <v>62.1391476044794</v>
+        <v>43.84515037294788</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4.482715195060345</v>
+        <v>4.92787171821319</v>
       </c>
       <c r="I19">
-        <v>4.004344725622964</v>
+        <v>4.908874077668508</v>
+      </c>
+      <c r="J19">
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>30.37480935847638</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.492724506245604</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.36166931060378</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.210587373256598</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1273,37 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.77011505302555</v>
+        <v>15.54700756250463</v>
       </c>
       <c r="C20">
-        <v>23.33617767899532</v>
+        <v>9.204702891719503</v>
       </c>
       <c r="D20">
-        <v>11.36379599668986</v>
+        <v>2.612077180740929</v>
       </c>
       <c r="E20">
-        <v>35.10227964631333</v>
+        <v>5.290982868895878</v>
       </c>
       <c r="F20">
-        <v>74.16862513086238</v>
+        <v>49.28909279460176</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>4.401423776380235</v>
+        <v>3.912228188992446</v>
       </c>
       <c r="I20">
-        <v>4.404245607115837</v>
+        <v>4.716891901894972</v>
+      </c>
+      <c r="J20">
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>34.063152118269</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.921080330071044</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.56132918457266</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.004107141004232</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1320,37 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.7111872455107</v>
+        <v>16.42359074618386</v>
       </c>
       <c r="C21">
-        <v>24.9210699039247</v>
+        <v>9.824805902931772</v>
       </c>
       <c r="D21">
-        <v>12.23709605280165</v>
+        <v>2.60047182060187</v>
       </c>
       <c r="E21">
-        <v>38.25446208494751</v>
+        <v>5.541226557260266</v>
       </c>
       <c r="F21">
-        <v>79.79845908273609</v>
+        <v>51.55837176008252</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>4.945779170588744</v>
+        <v>3.532905612548928</v>
       </c>
       <c r="I21">
-        <v>4.932425038480163</v>
+        <v>4.409809997545246</v>
+      </c>
+      <c r="J21">
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>35.45078004309013</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.093702736748138</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.29405570050567</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.305006320943579</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1367,37 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.93184815393736</v>
+        <v>16.97965094185079</v>
       </c>
       <c r="C22">
-        <v>25.87651622743631</v>
+        <v>10.20185919833921</v>
       </c>
       <c r="D22">
-        <v>12.73286506220662</v>
+        <v>2.588838988200416</v>
       </c>
       <c r="E22">
-        <v>39.81103740819038</v>
+        <v>5.672180377046955</v>
       </c>
       <c r="F22">
-        <v>83.11018563579114</v>
+        <v>52.88041005988025</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>5.276999036934564</v>
+        <v>3.3007757190209</v>
       </c>
       <c r="I22">
-        <v>5.267901108184306</v>
+        <v>4.207647736979992</v>
+      </c>
+      <c r="J22">
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>36.25942621949985</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.187235929342986</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.81884749992137</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.457400743488682</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1414,37 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.28696165357778</v>
+        <v>16.6878041942406</v>
       </c>
       <c r="C23">
-        <v>25.32849659325503</v>
+        <v>9.986540245310794</v>
       </c>
       <c r="D23">
-        <v>12.5236059460957</v>
+        <v>2.600060158711839</v>
       </c>
       <c r="E23">
-        <v>38.98920444367178</v>
+        <v>5.601961664337364</v>
       </c>
       <c r="F23">
-        <v>81.57543055012403</v>
+        <v>52.28203285128195</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>5.103098874419724</v>
+        <v>3.422014678460747</v>
       </c>
       <c r="I23">
-        <v>5.090924533227374</v>
+        <v>4.305230132990052</v>
+      </c>
+      <c r="J23">
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>35.91126026512404</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.142365965311726</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.53840585272919</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.370611263772894</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1461,37 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.75410850457814</v>
+        <v>15.53584580718013</v>
       </c>
       <c r="C24">
-        <v>23.27069290353974</v>
+        <v>9.171475946936166</v>
       </c>
       <c r="D24">
-        <v>11.62330803542006</v>
+        <v>2.632128650472816</v>
       </c>
       <c r="E24">
-        <v>35.7807733409719</v>
+        <v>5.33204105997512</v>
       </c>
       <c r="F24">
-        <v>75.23250871680625</v>
+        <v>49.78536132959433</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>4.438744010565634</v>
+        <v>3.892577603575105</v>
       </c>
       <c r="I24">
-        <v>4.419562322601108</v>
+        <v>4.698174342283017</v>
+      </c>
+      <c r="J24">
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34.42522019294025</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.960811710753553</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.54238028751481</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.045109406816423</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1508,37 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.82863147840275</v>
+        <v>14.20503725250564</v>
       </c>
       <c r="C25">
-        <v>20.94169776771453</v>
+        <v>8.240501018898428</v>
       </c>
       <c r="D25">
-        <v>10.60475007460902</v>
+        <v>2.662184487913013</v>
       </c>
       <c r="E25">
-        <v>32.11666396179469</v>
+        <v>5.030163285880678</v>
       </c>
       <c r="F25">
-        <v>68.00101855804014</v>
+        <v>46.96621963096387</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3.714172362288333</v>
+        <v>4.417947855279126</v>
       </c>
       <c r="I25">
-        <v>3.696257700969863</v>
+        <v>5.138207541993952</v>
+      </c>
+      <c r="J25">
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>32.75109712874725</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.756890199440372</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.47719956452652</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.68201112642396</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15886764000083</v>
+        <v>12.83022524054212</v>
       </c>
       <c r="C2">
-        <v>7.462048855499266</v>
+        <v>8.514066742736258</v>
       </c>
       <c r="D2">
-        <v>2.693823771289425</v>
+        <v>2.409667462006032</v>
       </c>
       <c r="E2">
-        <v>4.796789376553945</v>
+        <v>4.987739220688686</v>
       </c>
       <c r="F2">
-        <v>45.0797500448222</v>
+        <v>38.67176690893428</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.815596535470627</v>
+        <v>4.466270043966553</v>
       </c>
       <c r="I2">
-        <v>5.454530539833984</v>
+        <v>5.027204348178527</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>31.68432192086116</v>
+        <v>26.54540525903921</v>
       </c>
       <c r="L2">
-        <v>5.612467426898421</v>
+        <v>19.99311904361397</v>
       </c>
       <c r="M2">
-        <v>11.63687459312686</v>
+        <v>19.46421551171492</v>
       </c>
       <c r="N2">
-        <v>6.389801838044705</v>
+        <v>5.366276279183466</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.77487390102213</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.967639876679199</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.40043597336053</v>
+        <v>12.05889071186538</v>
       </c>
       <c r="C3">
-        <v>6.958510051112619</v>
+        <v>8.001041582071572</v>
       </c>
       <c r="D3">
-        <v>2.705803728429739</v>
+        <v>2.395150780696421</v>
       </c>
       <c r="E3">
-        <v>4.633496378861523</v>
+        <v>4.825805024969487</v>
       </c>
       <c r="F3">
-        <v>43.58542334654938</v>
+        <v>37.77582048138925</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.099677360783825</v>
+        <v>4.723204160644325</v>
       </c>
       <c r="I3">
-        <v>5.691181207635335</v>
+        <v>5.232988532645068</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>30.80574928454257</v>
+        <v>26.13055979241722</v>
       </c>
       <c r="L3">
-        <v>5.502814417243211</v>
+        <v>19.78283383373813</v>
       </c>
       <c r="M3">
-        <v>11.04720000993261</v>
+        <v>19.08345979329257</v>
       </c>
       <c r="N3">
-        <v>6.19539558278994</v>
+        <v>5.285059863908552</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.14703421965829</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.751030095187441</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.91317053789679</v>
+        <v>11.56072984316522</v>
       </c>
       <c r="C4">
-        <v>6.676214771095246</v>
+        <v>7.678982194887824</v>
       </c>
       <c r="D4">
-        <v>2.711929350760895</v>
+        <v>2.386981225435278</v>
       </c>
       <c r="E4">
-        <v>4.530311791993292</v>
+        <v>4.723471594897456</v>
       </c>
       <c r="F4">
-        <v>42.63701189621509</v>
+        <v>37.20991288377542</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5.279964119801652</v>
+        <v>4.886463888999829</v>
       </c>
       <c r="I4">
-        <v>5.841773446557165</v>
+        <v>5.36430337646152</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>30.24755122618214</v>
+        <v>25.86667986330075</v>
       </c>
       <c r="L4">
-        <v>5.432987916399219</v>
+        <v>19.64066410846631</v>
       </c>
       <c r="M4">
-        <v>10.67351263452058</v>
+        <v>18.85735224197892</v>
       </c>
       <c r="N4">
-        <v>6.074103073062481</v>
+        <v>5.233194474688952</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.74699840901173</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.615901044532717</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.70844495900099</v>
+        <v>11.35087776737234</v>
       </c>
       <c r="C5">
-        <v>6.565725660119027</v>
+        <v>7.550879191034361</v>
       </c>
       <c r="D5">
-        <v>2.712655437323071</v>
+        <v>2.385009508199105</v>
       </c>
       <c r="E5">
-        <v>4.48771121421294</v>
+        <v>4.681185073027168</v>
       </c>
       <c r="F5">
-        <v>42.21082589191396</v>
+        <v>36.95034897905813</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.355600757926628</v>
+        <v>4.954961047216054</v>
       </c>
       <c r="I5">
-        <v>5.90685742681891</v>
+        <v>5.421703330346872</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>29.99098292428068</v>
+        <v>25.73845450843246</v>
       </c>
       <c r="L5">
-        <v>5.402486839867177</v>
+        <v>19.56369072060803</v>
       </c>
       <c r="M5">
-        <v>10.51982425895091</v>
+        <v>18.7551651969162</v>
       </c>
       <c r="N5">
-        <v>6.025967830592509</v>
+        <v>5.210553469369655</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.58159187975357</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.561754472633888</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.67306129154653</v>
+        <v>11.3147275137844</v>
       </c>
       <c r="C6">
-        <v>6.554461675668477</v>
+        <v>7.5353146979388</v>
       </c>
       <c r="D6">
-        <v>2.710991317742037</v>
+        <v>2.386164211346366</v>
       </c>
       <c r="E6">
-        <v>4.480812773594291</v>
+        <v>4.674288624018653</v>
       </c>
       <c r="F6">
-        <v>42.10007230396383</v>
+        <v>36.87625890242936</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.369063089960862</v>
+        <v>4.967103300018694</v>
       </c>
       <c r="I6">
-        <v>5.920726819980366</v>
+        <v>5.43463852433534</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>29.9180380285027</v>
+        <v>25.69448674362685</v>
       </c>
       <c r="L6">
-        <v>5.395652166082106</v>
+        <v>19.53148815430756</v>
       </c>
       <c r="M6">
-        <v>10.49577726031437</v>
+        <v>18.7234568447411</v>
       </c>
       <c r="N6">
-        <v>6.020070195342524</v>
+        <v>5.205542853708214</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.55526023485617</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.554446604309295</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.9075186252457</v>
+        <v>11.55538304358921</v>
       </c>
       <c r="C7">
-        <v>6.693832907014096</v>
+        <v>7.692763584466605</v>
       </c>
       <c r="D7">
-        <v>2.707123315689427</v>
+        <v>2.391104691318734</v>
       </c>
       <c r="E7">
-        <v>4.530330650594821</v>
+        <v>4.723360069560126</v>
       </c>
       <c r="F7">
-        <v>42.52451972238111</v>
+        <v>37.12332201063192</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5.283173040238574</v>
+        <v>4.889221889696684</v>
       </c>
       <c r="I7">
-        <v>5.850572611340237</v>
+        <v>5.373896952041197</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>30.16274719155235</v>
+        <v>25.80395897662714</v>
       </c>
       <c r="L7">
-        <v>5.42788876444927</v>
+        <v>19.58812978132768</v>
       </c>
       <c r="M7">
-        <v>10.67579672184053</v>
+        <v>18.81518317946609</v>
       </c>
       <c r="N7">
-        <v>6.079185632251393</v>
+        <v>5.229596247582057</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.74833996195005</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.61979921965905</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.89817325313328</v>
+        <v>12.56617834342834</v>
       </c>
       <c r="C8">
-        <v>7.303966544330573</v>
+        <v>8.35779898582137</v>
       </c>
       <c r="D8">
-        <v>2.691999558286466</v>
+        <v>2.410632434484657</v>
       </c>
       <c r="E8">
-        <v>4.741837509992613</v>
+        <v>4.933095106478609</v>
       </c>
       <c r="F8">
-        <v>44.43566893897093</v>
+        <v>38.26048088374137</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.9151636516664</v>
+        <v>4.556062321811359</v>
       </c>
       <c r="I8">
-        <v>5.54510833506696</v>
+        <v>5.108324280492406</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>31.28145940263289</v>
+        <v>26.32619219881553</v>
       </c>
       <c r="L8">
-        <v>5.569155175375623</v>
+        <v>19.85931069706972</v>
       </c>
       <c r="M8">
-        <v>11.44132785459056</v>
+        <v>19.27718464123323</v>
       </c>
       <c r="N8">
-        <v>6.330506954754989</v>
+        <v>5.334494228284077</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.56579680997391</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.899349969820415</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.66983687978676</v>
+        <v>14.35481343849224</v>
       </c>
       <c r="C9">
-        <v>8.534783404703008</v>
+        <v>9.582178550612461</v>
       </c>
       <c r="D9">
-        <v>2.660546102403116</v>
+        <v>2.446684349131168</v>
       </c>
       <c r="E9">
-        <v>5.132395941920403</v>
+        <v>5.320316951168174</v>
       </c>
       <c r="F9">
-        <v>48.10267991981512</v>
+        <v>40.49868684166267</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.234816142891945</v>
+        <v>3.942133785242316</v>
       </c>
       <c r="I9">
-        <v>4.973801813422744</v>
+        <v>4.611546991612697</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>33.45654326980743</v>
+        <v>27.37960278660782</v>
       </c>
       <c r="L9">
-        <v>5.834451965012127</v>
+        <v>20.37271728939887</v>
       </c>
       <c r="M9">
-        <v>12.8370884753058</v>
+        <v>20.30961342145041</v>
       </c>
       <c r="N9">
-        <v>6.796532687917221</v>
+        <v>5.530115224416573</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.04191001845056</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.420413446931554</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.85980336152158</v>
+        <v>15.54878803355854</v>
       </c>
       <c r="C10">
-        <v>9.379258029418121</v>
+        <v>10.5195309581859</v>
       </c>
       <c r="D10">
-        <v>2.612548163143793</v>
+        <v>2.476910738280929</v>
       </c>
       <c r="E10">
-        <v>5.348213633107304</v>
+        <v>5.531541405454613</v>
       </c>
       <c r="F10">
-        <v>50.11372137984916</v>
+        <v>41.67666018866802</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.790591474958236</v>
+        <v>3.543263380034041</v>
       </c>
       <c r="I10">
-        <v>4.592347544680055</v>
+        <v>4.282140222510803</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>34.59239189280667</v>
+        <v>27.85760424972568</v>
       </c>
       <c r="L10">
-        <v>5.971355015985972</v>
+        <v>20.49743949170554</v>
       </c>
       <c r="M10">
-        <v>13.79899394686357</v>
+        <v>20.90608259753294</v>
       </c>
       <c r="N10">
-        <v>7.060141554711806</v>
+        <v>5.631726812362557</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.04534759445638</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.714817331490432</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.38205131255406</v>
+        <v>16.09572690441204</v>
       </c>
       <c r="C11">
-        <v>9.747673319776794</v>
+        <v>10.79356989901969</v>
       </c>
       <c r="D11">
-        <v>2.464652917968847</v>
+        <v>2.479733839729215</v>
       </c>
       <c r="E11">
-        <v>5.012354403792022</v>
+        <v>5.176628407979321</v>
       </c>
       <c r="F11">
-        <v>46.91554724064454</v>
+        <v>39.16576163552125</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.32980069957162</v>
+        <v>4.115674903683346</v>
       </c>
       <c r="I11">
-        <v>4.523709711458487</v>
+        <v>4.21960362876088</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>32.24718235773513</v>
+        <v>26.10823475775546</v>
       </c>
       <c r="L11">
-        <v>5.695782743644475</v>
+        <v>19.04870568581177</v>
       </c>
       <c r="M11">
-        <v>14.23615681808133</v>
+        <v>19.71538705440633</v>
       </c>
       <c r="N11">
-        <v>6.601350952752953</v>
+        <v>5.450581340026516</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.49393681870684</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.205812186182596</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.58169032711004</v>
+        <v>16.31630820360215</v>
       </c>
       <c r="C12">
-        <v>9.864219642154353</v>
+        <v>10.81321402075068</v>
       </c>
       <c r="D12">
-        <v>2.380525649043913</v>
+        <v>2.474170612615172</v>
       </c>
       <c r="E12">
-        <v>4.776975146118486</v>
+        <v>4.924422283184152</v>
       </c>
       <c r="F12">
-        <v>43.93588626717033</v>
+        <v>36.91089518222735</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.340082709690272</v>
+        <v>5.160673122361946</v>
       </c>
       <c r="I12">
-        <v>4.524733590070461</v>
+        <v>4.21444030240488</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>30.16191369453594</v>
+        <v>24.6392150458138</v>
       </c>
       <c r="L12">
-        <v>5.513014520106521</v>
+        <v>17.89699494289397</v>
       </c>
       <c r="M12">
-        <v>14.39979601285817</v>
+        <v>18.65005075977572</v>
       </c>
       <c r="N12">
-        <v>6.162266768870196</v>
+        <v>5.349716723939283</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.63687976767745</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.718278995803148</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.54810868128771</v>
+        <v>16.30340754081388</v>
       </c>
       <c r="C13">
-        <v>9.818170843018773</v>
+        <v>10.6551510146496</v>
       </c>
       <c r="D13">
-        <v>2.333852998214274</v>
+        <v>2.467504695753927</v>
       </c>
       <c r="E13">
-        <v>4.613200563927247</v>
+        <v>4.745056924223167</v>
       </c>
       <c r="F13">
-        <v>40.75551745336475</v>
+        <v>34.57533114426583</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.550225427034033</v>
+        <v>6.392856234455641</v>
       </c>
       <c r="I13">
-        <v>4.592128514706866</v>
+        <v>4.267527529654905</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>28.02063844435328</v>
+        <v>23.20495031266771</v>
       </c>
       <c r="L13">
-        <v>5.388220653471034</v>
+        <v>16.82117645955248</v>
       </c>
       <c r="M13">
-        <v>14.37272170064251</v>
+        <v>17.55600847489208</v>
       </c>
       <c r="N13">
-        <v>5.717834786921058</v>
+        <v>5.30027949957253</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.55975200846611</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.221983246054677</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.41830124607314</v>
+        <v>16.18824508056215</v>
       </c>
       <c r="C14">
-        <v>9.716300571509603</v>
+        <v>10.46523690384555</v>
       </c>
       <c r="D14">
-        <v>2.321226286867731</v>
+        <v>2.464343471697599</v>
       </c>
       <c r="E14">
-        <v>4.550003129239076</v>
+        <v>4.671872514808975</v>
       </c>
       <c r="F14">
-        <v>38.40538671295267</v>
+        <v>32.88279961286028</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.463365892642869</v>
+        <v>7.315863304029471</v>
       </c>
       <c r="I14">
-        <v>4.671112015101583</v>
+        <v>4.333451589494033</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>26.48449645047081</v>
+        <v>22.21182515405149</v>
       </c>
       <c r="L14">
-        <v>5.339285064664357</v>
+        <v>16.09272184349037</v>
       </c>
       <c r="M14">
-        <v>14.26851016127788</v>
+        <v>16.77815516017063</v>
       </c>
       <c r="N14">
-        <v>5.410017546727598</v>
+        <v>5.298054027912014</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.42734314828567</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.876192999390698</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.33573206082777</v>
+        <v>16.10922580028111</v>
       </c>
       <c r="C15">
-        <v>9.661939467494554</v>
+        <v>10.38493208422104</v>
       </c>
       <c r="D15">
-        <v>2.323491608367373</v>
+        <v>2.465157917639851</v>
       </c>
       <c r="E15">
-        <v>4.536242647215169</v>
+        <v>4.656285100306359</v>
       </c>
       <c r="F15">
-        <v>37.75544752378092</v>
+        <v>32.42721622537857</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.686319463990333</v>
+        <v>7.539341904486467</v>
       </c>
       <c r="I15">
-        <v>4.708864888482359</v>
+        <v>4.366678733886363</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>26.07185336431888</v>
+        <v>21.95725277360268</v>
       </c>
       <c r="L15">
-        <v>5.329350471815518</v>
+        <v>15.91131508423646</v>
       </c>
       <c r="M15">
-        <v>14.20379214086595</v>
+        <v>16.57174251551474</v>
       </c>
       <c r="N15">
-        <v>5.334137854911566</v>
+        <v>5.298672559190845</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.35542094315685</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.790309435335849</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.85415223608508</v>
+        <v>15.62435937227567</v>
       </c>
       <c r="C16">
-        <v>9.331318763833989</v>
+        <v>10.02484096278468</v>
       </c>
       <c r="D16">
-        <v>2.34971759152325</v>
+        <v>2.450057195108199</v>
       </c>
       <c r="E16">
-        <v>4.465912770413847</v>
+        <v>4.591664959317888</v>
       </c>
       <c r="F16">
-        <v>37.36830542906188</v>
+        <v>32.27737006959025</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.57770955588499</v>
+        <v>7.413144364666389</v>
       </c>
       <c r="I16">
-        <v>4.862373615341233</v>
+        <v>4.501930551268308</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>25.92209171386809</v>
+        <v>21.98147505627951</v>
       </c>
       <c r="L16">
-        <v>5.289779646346656</v>
+        <v>15.98374213185314</v>
       </c>
       <c r="M16">
-        <v>13.81563622009909</v>
+        <v>16.52313263083704</v>
       </c>
       <c r="N16">
-        <v>5.303800329626883</v>
+        <v>5.257344084666501</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.95345545316423</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.756188104857416</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.54889932099007</v>
+        <v>15.30809149083539</v>
       </c>
       <c r="C17">
-        <v>9.129993960702725</v>
+        <v>9.850668469971193</v>
       </c>
       <c r="D17">
-        <v>2.374873800264222</v>
+        <v>2.441303164524627</v>
       </c>
       <c r="E17">
-        <v>4.434539443209374</v>
+        <v>4.569949715629169</v>
       </c>
       <c r="F17">
-        <v>38.33869885498497</v>
+        <v>33.07189110338315</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.994652213316406</v>
+        <v>6.808556514534625</v>
       </c>
       <c r="I17">
-        <v>4.939226753814424</v>
+        <v>4.571587620429857</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>26.62403291831062</v>
+        <v>22.52484519822755</v>
       </c>
       <c r="L17">
-        <v>5.277539803673451</v>
+        <v>16.43524528765921</v>
       </c>
       <c r="M17">
-        <v>13.57023339789343</v>
+        <v>16.88995051464799</v>
       </c>
       <c r="N17">
-        <v>5.443545815115701</v>
+        <v>5.220866230947255</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.70968963272754</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.913112357477895</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.3676464277229</v>
+        <v>15.1084924635462</v>
       </c>
       <c r="C18">
-        <v>9.008089069257821</v>
+        <v>9.810031371327234</v>
       </c>
       <c r="D18">
-        <v>2.4145133421013</v>
+        <v>2.434207668805848</v>
       </c>
       <c r="E18">
-        <v>4.494906245552678</v>
+        <v>4.644315015058138</v>
       </c>
       <c r="F18">
-        <v>40.69250099793052</v>
+        <v>34.8501488908304</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6.003473836076186</v>
+        <v>5.787576997557093</v>
       </c>
       <c r="I18">
-        <v>4.947029479861273</v>
+        <v>4.580402668598228</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>28.23314333787769</v>
+        <v>23.64957399174361</v>
       </c>
       <c r="L18">
-        <v>5.331811676603123</v>
+        <v>17.3303842729205</v>
       </c>
       <c r="M18">
-        <v>13.41928682584766</v>
+        <v>17.69815860456377</v>
       </c>
       <c r="N18">
-        <v>5.756473292104371</v>
+        <v>5.222229766910527</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.57521349945162</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.263992441506004</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.29569538697847</v>
+        <v>15.01531709800361</v>
       </c>
       <c r="C19">
-        <v>8.987548634598159</v>
+        <v>9.902080921681646</v>
       </c>
       <c r="D19">
-        <v>2.481362793325466</v>
+        <v>2.447151450848409</v>
       </c>
       <c r="E19">
-        <v>4.709797824584957</v>
+        <v>4.874838571025911</v>
       </c>
       <c r="F19">
-        <v>43.84515037294788</v>
+        <v>37.18354744146926</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.92787171821319</v>
+        <v>4.6772590842363</v>
       </c>
       <c r="I19">
-        <v>4.908874077668508</v>
+        <v>4.553452652845348</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>30.37480935847638</v>
+        <v>25.10831436556553</v>
       </c>
       <c r="L19">
-        <v>5.492724506245604</v>
+        <v>18.47626829391891</v>
       </c>
       <c r="M19">
-        <v>13.36166931060378</v>
+        <v>18.76265521825832</v>
       </c>
       <c r="N19">
-        <v>6.210587373256598</v>
+        <v>5.30567579958589</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.54374737410829</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.768696546082071</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.54700756250463</v>
+        <v>15.23700120699417</v>
       </c>
       <c r="C20">
-        <v>9.204702891719503</v>
+        <v>10.31416196278984</v>
       </c>
       <c r="D20">
-        <v>2.612077180740929</v>
+        <v>2.48634269212535</v>
       </c>
       <c r="E20">
-        <v>5.290982868895878</v>
+        <v>5.47521351911972</v>
       </c>
       <c r="F20">
-        <v>49.28909279460176</v>
+        <v>41.13171982441133</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.912228188992446</v>
+        <v>3.651683346631074</v>
       </c>
       <c r="I20">
-        <v>4.716891901894972</v>
+        <v>4.396345153922221</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>34.063152118269</v>
+        <v>27.55588684448569</v>
       </c>
       <c r="L20">
-        <v>5.921080330071044</v>
+        <v>20.32916076503735</v>
       </c>
       <c r="M20">
-        <v>13.56132918457266</v>
+        <v>20.61643807181389</v>
       </c>
       <c r="N20">
-        <v>7.004107141004232</v>
+        <v>5.595238686611402</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.79554037954253</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.647599363767483</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.42359074618386</v>
+        <v>16.10893896309341</v>
       </c>
       <c r="C21">
-        <v>9.824805902931772</v>
+        <v>11.02732909572554</v>
       </c>
       <c r="D21">
-        <v>2.60047182060187</v>
+        <v>2.513680155268165</v>
       </c>
       <c r="E21">
-        <v>5.541226557260266</v>
+        <v>5.724557088545222</v>
       </c>
       <c r="F21">
-        <v>51.55837176008252</v>
+        <v>42.59026899500227</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.532905612548928</v>
+        <v>3.310386290158673</v>
       </c>
       <c r="I21">
-        <v>4.409809997545246</v>
+        <v>4.132146811857982</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>35.45078004309013</v>
+        <v>28.28938937166847</v>
       </c>
       <c r="L21">
-        <v>6.093702736748138</v>
+        <v>20.70418430112757</v>
       </c>
       <c r="M21">
-        <v>14.29405570050567</v>
+        <v>21.35867728454702</v>
       </c>
       <c r="N21">
-        <v>7.305006320943579</v>
+        <v>5.721266088804639</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.60901415829989</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.983221191456074</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.97965094185079</v>
+        <v>16.66111219245431</v>
       </c>
       <c r="C22">
-        <v>10.20185919833921</v>
+        <v>11.45706629024398</v>
       </c>
       <c r="D22">
-        <v>2.588838988200416</v>
+        <v>2.52287061818999</v>
       </c>
       <c r="E22">
-        <v>5.672180377046955</v>
+        <v>5.853980350658071</v>
       </c>
       <c r="F22">
-        <v>52.88041005988025</v>
+        <v>43.43837562341678</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.3007757190209</v>
+        <v>3.102483744403923</v>
       </c>
       <c r="I22">
-        <v>4.207647736979992</v>
+        <v>3.955362450282507</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>36.25942621949985</v>
+        <v>28.713447422455</v>
       </c>
       <c r="L22">
-        <v>6.187235929342986</v>
+        <v>20.90139322660575</v>
       </c>
       <c r="M22">
-        <v>14.81884749992137</v>
+        <v>21.81207677105182</v>
       </c>
       <c r="N22">
-        <v>7.457400743488682</v>
+        <v>5.789561745397696</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.13993661880357</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.155238128889303</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.6878041942406</v>
+        <v>16.371018391248</v>
       </c>
       <c r="C23">
-        <v>9.986540245310794</v>
+        <v>11.21606732543915</v>
       </c>
       <c r="D23">
-        <v>2.600060158711839</v>
+        <v>2.510800104134692</v>
       </c>
       <c r="E23">
-        <v>5.601961664337364</v>
+        <v>5.784687360974088</v>
       </c>
       <c r="F23">
-        <v>52.28203285128195</v>
+        <v>43.06944693236272</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.422014678460747</v>
+        <v>3.211278189874373</v>
       </c>
       <c r="I23">
-        <v>4.305230132990052</v>
+        <v>4.038027225610132</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>35.91126026512404</v>
+        <v>28.55007351581883</v>
       </c>
       <c r="L23">
-        <v>6.142365965311726</v>
+        <v>20.84435277811157</v>
       </c>
       <c r="M23">
-        <v>14.53840585272919</v>
+        <v>21.61659903646489</v>
       </c>
       <c r="N23">
-        <v>7.370611263772894</v>
+        <v>5.75655552950861</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.85670144197068</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.059085372938998</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.53584580718013</v>
+        <v>15.22297269019685</v>
       </c>
       <c r="C24">
-        <v>9.171475946936166</v>
+        <v>10.29551491618888</v>
       </c>
       <c r="D24">
-        <v>2.632128650472816</v>
+        <v>2.478258264644771</v>
       </c>
       <c r="E24">
-        <v>5.33204105997512</v>
+        <v>5.517833982329146</v>
       </c>
       <c r="F24">
-        <v>49.78536132959433</v>
+        <v>41.5105801666391</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.892577603575105</v>
+        <v>3.633808061398159</v>
       </c>
       <c r="I24">
-        <v>4.698174342283017</v>
+        <v>4.376649788314049</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>34.42522019294025</v>
+        <v>27.81751275449465</v>
       </c>
       <c r="L24">
-        <v>5.960811710753553</v>
+        <v>20.53500981607514</v>
       </c>
       <c r="M24">
-        <v>13.54238028751481</v>
+        <v>20.80640027390662</v>
       </c>
       <c r="N24">
-        <v>7.045109406816423</v>
+        <v>5.623356936506181</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.7801849270553</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.695456244418221</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20503725250564</v>
+        <v>13.88825160260525</v>
       </c>
       <c r="C25">
-        <v>8.240501018898428</v>
+        <v>9.276616185383832</v>
       </c>
       <c r="D25">
-        <v>2.662184487913013</v>
+        <v>2.44571914677178</v>
       </c>
       <c r="E25">
-        <v>5.030163285880678</v>
+        <v>5.218835639182895</v>
       </c>
       <c r="F25">
-        <v>46.96621963096387</v>
+        <v>39.77158206498044</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.417947855279126</v>
+        <v>4.106843046906495</v>
       </c>
       <c r="I25">
-        <v>5.138207541993952</v>
+        <v>4.757711948187333</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>32.75109712874725</v>
+        <v>27.00102004879343</v>
       </c>
       <c r="L25">
-        <v>5.756890199440372</v>
+        <v>20.16399846543112</v>
       </c>
       <c r="M25">
-        <v>12.47719956452652</v>
+        <v>19.95216782559658</v>
       </c>
       <c r="N25">
-        <v>6.68201112642396</v>
+        <v>5.473406197191619</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.66147115192452</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.289525804060499</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
